--- a/excel_sheets/wageTime_sheets 2023/出退勤表　7月.xlsx
+++ b/excel_sheets/wageTime_sheets 2023/出退勤表　7月.xlsx
@@ -8,6 +8,12 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ひな形" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="めい" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="あかり" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ひとみ" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="みりあ" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="こまち" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ゆき" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -2954,13 +2960,23 @@
         <f>E32-D32</f>
         <v/>
       </c>
-      <c r="G32" s="23" t="n"/>
-      <c r="H32" s="24" t="n"/>
-      <c r="I32" s="25" t="n"/>
+      <c r="G32" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" s="25" t="n"/>
-      <c r="K32" s="25" t="n"/>
+      <c r="K32" s="25" t="n">
+        <v>7200</v>
+      </c>
       <c r="L32" s="25" t="n"/>
-      <c r="M32" s="26" t="n"/>
+      <c r="M32" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="O32" s="20" t="inlineStr">
         <is>
           <t>参考値</t>
@@ -3051,4 +3067,6446 @@
   <pageMargins left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
   <pageSetup orientation="portrait" paperSize="9" scale="52" horizontalDpi="360" verticalDpi="360"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col width="8.796875" customWidth="1" style="2" min="1" max="1"/>
+    <col width="8.796875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="5.69921875" customWidth="1" style="3" min="3" max="3"/>
+    <col width="9" customWidth="1" style="2" min="4" max="4"/>
+    <col width="8.796875" customWidth="1" style="2" min="5" max="6"/>
+    <col width="10.8984375" customWidth="1" style="2" min="7" max="7"/>
+    <col width="10.09765625" customWidth="1" style="2" min="8" max="9"/>
+    <col width="10.59765625" customWidth="1" style="2" min="10" max="10"/>
+    <col width="8.796875" customWidth="1" style="2" min="11" max="14"/>
+    <col width="11.8984375" customWidth="1" style="4" min="15" max="15"/>
+    <col width="12.09765625" customWidth="1" style="2" min="16" max="16"/>
+    <col width="8.796875" customWidth="1" style="2" min="17" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>出退勤シート</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>氏名</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.6" customFormat="1" customHeight="1" s="3" thickBot="1">
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>出勤</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>退勤</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>勤務時間</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>売上</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>ドリンク</t>
+        </is>
+      </c>
+      <c r="I2" s="10" t="inlineStr">
+        <is>
+          <t>シャンパン</t>
+        </is>
+      </c>
+      <c r="J2" s="10" t="inlineStr">
+        <is>
+          <t>遅刻・当欠</t>
+        </is>
+      </c>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>バック</t>
+        </is>
+      </c>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>送り</t>
+        </is>
+      </c>
+      <c r="M2" s="6" t="inlineStr">
+        <is>
+          <t>前借</t>
+        </is>
+      </c>
+      <c r="O2" s="4" t="n"/>
+    </row>
+    <row r="3" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B3" s="11" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D3" s="50" t="n"/>
+      <c r="E3" s="51" t="n"/>
+      <c r="F3" s="52">
+        <f>E3-D3</f>
+        <v/>
+      </c>
+      <c r="G3" s="16" t="n"/>
+      <c r="H3" s="17" t="n"/>
+      <c r="I3" s="18" t="n"/>
+      <c r="J3" s="18" t="n"/>
+      <c r="K3" s="18" t="n"/>
+      <c r="L3" s="18" t="n"/>
+      <c r="M3" s="19" t="n"/>
+      <c r="O3" s="20" t="inlineStr">
+        <is>
+          <t>給与</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B4" s="11" t="n">
+        <v>45109</v>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D4" s="53" t="n"/>
+      <c r="E4" s="54" t="n"/>
+      <c r="F4" s="52">
+        <f>E4-D4</f>
+        <v/>
+      </c>
+      <c r="G4" s="23" t="n"/>
+      <c r="H4" s="24" t="n"/>
+      <c r="I4" s="25" t="n"/>
+      <c r="J4" s="25" t="n"/>
+      <c r="K4" s="25" t="n"/>
+      <c r="L4" s="25" t="n"/>
+      <c r="M4" s="26" t="n"/>
+      <c r="O4" s="27" t="inlineStr">
+        <is>
+          <t>出勤日数</t>
+        </is>
+      </c>
+      <c r="P4" s="28">
+        <f>COUNTA(E3:E33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B5" s="11" t="n">
+        <v>45110</v>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D5" s="53" t="n"/>
+      <c r="E5" s="54" t="n"/>
+      <c r="F5" s="52">
+        <f>E5-D5</f>
+        <v/>
+      </c>
+      <c r="G5" s="23" t="n"/>
+      <c r="H5" s="24" t="n"/>
+      <c r="I5" s="25" t="n"/>
+      <c r="J5" s="25" t="n"/>
+      <c r="K5" s="25" t="n"/>
+      <c r="L5" s="25" t="n"/>
+      <c r="M5" s="26" t="n"/>
+      <c r="O5" s="29" t="inlineStr">
+        <is>
+          <t>時給</t>
+        </is>
+      </c>
+      <c r="P5" s="30" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B6" s="11" t="n">
+        <v>45111</v>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D6" s="53" t="n"/>
+      <c r="E6" s="54" t="n"/>
+      <c r="F6" s="52">
+        <f>E6-D6</f>
+        <v/>
+      </c>
+      <c r="G6" s="23" t="n"/>
+      <c r="H6" s="24" t="n"/>
+      <c r="I6" s="25" t="n"/>
+      <c r="J6" s="25" t="n"/>
+      <c r="K6" s="25" t="n"/>
+      <c r="L6" s="25" t="n"/>
+      <c r="M6" s="26" t="n"/>
+    </row>
+    <row r="7" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B7" s="11" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D7" s="53" t="n"/>
+      <c r="E7" s="54" t="n"/>
+      <c r="F7" s="52">
+        <f>E7-D7</f>
+        <v/>
+      </c>
+      <c r="G7" s="23" t="n"/>
+      <c r="H7" s="24" t="n"/>
+      <c r="I7" s="25" t="n"/>
+      <c r="J7" s="25" t="n"/>
+      <c r="K7" s="25" t="n"/>
+      <c r="L7" s="25" t="n"/>
+      <c r="M7" s="26" t="n"/>
+      <c r="O7" s="27" t="inlineStr">
+        <is>
+          <t>基本給</t>
+        </is>
+      </c>
+      <c r="P7" s="28">
+        <f>P5*F34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B8" s="11" t="n">
+        <v>45113</v>
+      </c>
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D8" s="53" t="n"/>
+      <c r="E8" s="54" t="n"/>
+      <c r="F8" s="52">
+        <f>E8-D8</f>
+        <v/>
+      </c>
+      <c r="G8" s="23" t="n"/>
+      <c r="H8" s="24" t="n"/>
+      <c r="I8" s="25" t="n"/>
+      <c r="J8" s="25" t="n"/>
+      <c r="K8" s="25" t="n"/>
+      <c r="L8" s="25" t="n"/>
+      <c r="M8" s="26" t="n"/>
+      <c r="O8" s="29" t="inlineStr">
+        <is>
+          <t>バック</t>
+        </is>
+      </c>
+      <c r="P8" s="30">
+        <f>K34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B9" s="11" t="n">
+        <v>45114</v>
+      </c>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D9" s="53" t="n"/>
+      <c r="E9" s="54" t="n"/>
+      <c r="F9" s="52">
+        <f>E9-D9</f>
+        <v/>
+      </c>
+      <c r="G9" s="23" t="n"/>
+      <c r="H9" s="24" t="n"/>
+      <c r="I9" s="25" t="n"/>
+      <c r="J9" s="25" t="n"/>
+      <c r="K9" s="25" t="n"/>
+      <c r="L9" s="25" t="n"/>
+      <c r="M9" s="26" t="n"/>
+    </row>
+    <row r="10" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B10" s="11" t="n">
+        <v>45115</v>
+      </c>
+      <c r="C10" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D10" s="53" t="n"/>
+      <c r="E10" s="54" t="n"/>
+      <c r="F10" s="52">
+        <f>E10-D10</f>
+        <v/>
+      </c>
+      <c r="G10" s="23" t="n"/>
+      <c r="H10" s="24" t="n"/>
+      <c r="I10" s="25" t="n"/>
+      <c r="J10" s="25" t="n"/>
+      <c r="K10" s="25" t="n"/>
+      <c r="L10" s="25" t="n"/>
+      <c r="M10" s="26" t="n"/>
+      <c r="O10" s="20" t="inlineStr">
+        <is>
+          <t>賞与</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B11" s="11" t="n">
+        <v>45116</v>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D11" s="53" t="n"/>
+      <c r="E11" s="54" t="n"/>
+      <c r="F11" s="52">
+        <f>E11-D11</f>
+        <v/>
+      </c>
+      <c r="G11" s="23" t="n"/>
+      <c r="H11" s="24" t="n"/>
+      <c r="I11" s="25" t="n"/>
+      <c r="J11" s="25" t="n"/>
+      <c r="K11" s="25" t="n"/>
+      <c r="L11" s="25" t="n"/>
+      <c r="M11" s="26" t="n"/>
+      <c r="O11" s="31" t="inlineStr">
+        <is>
+          <t>チームバック</t>
+        </is>
+      </c>
+      <c r="P11" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B12" s="11" t="n">
+        <v>45117</v>
+      </c>
+      <c r="C12" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D12" s="53" t="n"/>
+      <c r="E12" s="54" t="n"/>
+      <c r="F12" s="52">
+        <f>E12-D12</f>
+        <v/>
+      </c>
+      <c r="G12" s="23" t="n"/>
+      <c r="H12" s="24" t="n"/>
+      <c r="I12" s="25" t="n"/>
+      <c r="J12" s="25" t="n"/>
+      <c r="K12" s="25" t="n"/>
+      <c r="L12" s="25" t="n"/>
+      <c r="M12" s="26" t="n"/>
+      <c r="O12" s="32" t="inlineStr">
+        <is>
+          <t>売上1位</t>
+        </is>
+      </c>
+      <c r="P12" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B13" s="11" t="n">
+        <v>45118</v>
+      </c>
+      <c r="C13" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D13" s="53" t="n"/>
+      <c r="E13" s="54" t="n"/>
+      <c r="F13" s="52">
+        <f>E13-D13</f>
+        <v/>
+      </c>
+      <c r="G13" s="23" t="n"/>
+      <c r="H13" s="24" t="n"/>
+      <c r="I13" s="25" t="n"/>
+      <c r="J13" s="25" t="n"/>
+      <c r="K13" s="25" t="n"/>
+      <c r="L13" s="25" t="n"/>
+      <c r="M13" s="26" t="n"/>
+      <c r="O13" s="32" t="inlineStr">
+        <is>
+          <t>月間指名1位</t>
+        </is>
+      </c>
+      <c r="P13" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B14" s="11" t="n">
+        <v>45119</v>
+      </c>
+      <c r="C14" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D14" s="53" t="n"/>
+      <c r="E14" s="54" t="n"/>
+      <c r="F14" s="52">
+        <f>E14-D14</f>
+        <v/>
+      </c>
+      <c r="G14" s="23" t="n"/>
+      <c r="H14" s="24" t="n"/>
+      <c r="I14" s="25" t="n"/>
+      <c r="J14" s="25" t="n"/>
+      <c r="K14" s="25" t="n"/>
+      <c r="L14" s="25" t="n"/>
+      <c r="M14" s="26" t="n"/>
+      <c r="O14" s="32" t="inlineStr">
+        <is>
+          <t>月間同伴1位</t>
+        </is>
+      </c>
+      <c r="P14" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B15" s="11" t="n">
+        <v>45120</v>
+      </c>
+      <c r="C15" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D15" s="53" t="n"/>
+      <c r="E15" s="54" t="n"/>
+      <c r="F15" s="52">
+        <f>E15-D15</f>
+        <v/>
+      </c>
+      <c r="G15" s="23" t="n"/>
+      <c r="H15" s="24" t="n"/>
+      <c r="I15" s="25" t="n"/>
+      <c r="J15" s="25" t="n"/>
+      <c r="K15" s="25" t="n"/>
+      <c r="L15" s="25" t="n"/>
+      <c r="M15" s="26" t="n"/>
+      <c r="O15" s="32" t="inlineStr">
+        <is>
+          <t>シャンパン</t>
+        </is>
+      </c>
+      <c r="P15" s="33">
+        <f>I34*10%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B16" s="11" t="n">
+        <v>45121</v>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D16" s="53" t="n"/>
+      <c r="E16" s="54" t="n"/>
+      <c r="F16" s="52">
+        <f>E16-D16</f>
+        <v/>
+      </c>
+      <c r="G16" s="23" t="n"/>
+      <c r="H16" s="24" t="n"/>
+      <c r="I16" s="25" t="n"/>
+      <c r="J16" s="25" t="n"/>
+      <c r="K16" s="25" t="n"/>
+      <c r="L16" s="25" t="n"/>
+      <c r="M16" s="26" t="n"/>
+      <c r="O16" s="34" t="inlineStr">
+        <is>
+          <t>ドリンク</t>
+        </is>
+      </c>
+      <c r="P16" s="30">
+        <f>H34*200</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B17" s="11" t="n">
+        <v>45122</v>
+      </c>
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D17" s="53" t="n"/>
+      <c r="E17" s="54" t="n"/>
+      <c r="F17" s="52">
+        <f>E17-D17</f>
+        <v/>
+      </c>
+      <c r="G17" s="23" t="n"/>
+      <c r="H17" s="24" t="n"/>
+      <c r="I17" s="25" t="n"/>
+      <c r="J17" s="25" t="n"/>
+      <c r="K17" s="25" t="n"/>
+      <c r="L17" s="25" t="n"/>
+      <c r="M17" s="26" t="n"/>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="P17" s="2">
+        <f>SUM(P11:P16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B18" s="11" t="n">
+        <v>45123</v>
+      </c>
+      <c r="C18" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D18" s="53" t="n"/>
+      <c r="E18" s="54" t="n"/>
+      <c r="F18" s="52">
+        <f>E18-D18</f>
+        <v/>
+      </c>
+      <c r="G18" s="23" t="n"/>
+      <c r="H18" s="24" t="n"/>
+      <c r="I18" s="25" t="n"/>
+      <c r="J18" s="25" t="n"/>
+      <c r="K18" s="25" t="n"/>
+      <c r="L18" s="25" t="n"/>
+      <c r="M18" s="26" t="n"/>
+    </row>
+    <row r="19" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B19" s="11" t="n">
+        <v>45124</v>
+      </c>
+      <c r="C19" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D19" s="53" t="n"/>
+      <c r="E19" s="54" t="n"/>
+      <c r="F19" s="52">
+        <f>E19-D19</f>
+        <v/>
+      </c>
+      <c r="G19" s="23" t="n"/>
+      <c r="H19" s="24" t="n"/>
+      <c r="I19" s="25" t="n"/>
+      <c r="J19" s="25" t="n"/>
+      <c r="K19" s="25" t="n"/>
+      <c r="L19" s="25" t="n"/>
+      <c r="M19" s="26" t="n"/>
+      <c r="O19" s="20" t="inlineStr">
+        <is>
+          <t>手当</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B20" s="11" t="n">
+        <v>45125</v>
+      </c>
+      <c r="C20" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D20" s="53" t="n"/>
+      <c r="E20" s="54" t="n"/>
+      <c r="F20" s="52">
+        <f>E20-D20</f>
+        <v/>
+      </c>
+      <c r="G20" s="23" t="n"/>
+      <c r="H20" s="24" t="n"/>
+      <c r="I20" s="25" t="n"/>
+      <c r="J20" s="25" t="n"/>
+      <c r="K20" s="25" t="n"/>
+      <c r="L20" s="25" t="n"/>
+      <c r="M20" s="26" t="n"/>
+      <c r="O20" s="31" t="inlineStr">
+        <is>
+          <t>シフト手当</t>
+        </is>
+      </c>
+      <c r="P20" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B21" s="11" t="n">
+        <v>45126</v>
+      </c>
+      <c r="C21" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D21" s="53" t="n"/>
+      <c r="E21" s="54" t="n"/>
+      <c r="F21" s="52">
+        <f>E21-D21</f>
+        <v/>
+      </c>
+      <c r="G21" s="23" t="n"/>
+      <c r="H21" s="24" t="n"/>
+      <c r="I21" s="25" t="n"/>
+      <c r="J21" s="25" t="n"/>
+      <c r="K21" s="25" t="n"/>
+      <c r="L21" s="25" t="n"/>
+      <c r="M21" s="26" t="n"/>
+      <c r="O21" s="34" t="inlineStr">
+        <is>
+          <t>役職手当</t>
+        </is>
+      </c>
+      <c r="P21" s="30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B22" s="11" t="n">
+        <v>45127</v>
+      </c>
+      <c r="C22" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D22" s="53" t="n"/>
+      <c r="E22" s="54" t="n"/>
+      <c r="F22" s="52">
+        <f>E22-D22</f>
+        <v/>
+      </c>
+      <c r="G22" s="23" t="n"/>
+      <c r="H22" s="24" t="n"/>
+      <c r="I22" s="25" t="n"/>
+      <c r="J22" s="25" t="n"/>
+      <c r="K22" s="25" t="n"/>
+      <c r="L22" s="25" t="n"/>
+      <c r="M22" s="26" t="n"/>
+    </row>
+    <row r="23" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B23" s="11" t="n">
+        <v>45128</v>
+      </c>
+      <c r="C23" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D23" s="53" t="n"/>
+      <c r="E23" s="54" t="n"/>
+      <c r="F23" s="52">
+        <f>E23-D23</f>
+        <v/>
+      </c>
+      <c r="G23" s="23" t="n"/>
+      <c r="H23" s="24" t="n"/>
+      <c r="I23" s="25" t="n"/>
+      <c r="J23" s="25" t="n"/>
+      <c r="K23" s="25" t="n"/>
+      <c r="L23" s="25" t="n"/>
+      <c r="M23" s="26" t="n"/>
+      <c r="O23" s="20" t="inlineStr">
+        <is>
+          <t>控除</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B24" s="11" t="n">
+        <v>45129</v>
+      </c>
+      <c r="C24" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D24" s="53" t="n"/>
+      <c r="E24" s="54" t="n"/>
+      <c r="F24" s="52">
+        <f>E24-D24</f>
+        <v/>
+      </c>
+      <c r="G24" s="23" t="n"/>
+      <c r="H24" s="24" t="n"/>
+      <c r="I24" s="25" t="n"/>
+      <c r="J24" s="25" t="n"/>
+      <c r="K24" s="25" t="n"/>
+      <c r="L24" s="25" t="n"/>
+      <c r="M24" s="26" t="n"/>
+      <c r="O24" s="31" t="inlineStr">
+        <is>
+          <t>源泉徴収</t>
+        </is>
+      </c>
+      <c r="P24" s="35">
+        <f>P29*10.21%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B25" s="11" t="n">
+        <v>45130</v>
+      </c>
+      <c r="C25" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D25" s="53" t="n"/>
+      <c r="E25" s="54" t="n"/>
+      <c r="F25" s="52">
+        <f>E25-D25</f>
+        <v/>
+      </c>
+      <c r="G25" s="23" t="n"/>
+      <c r="H25" s="24" t="n"/>
+      <c r="I25" s="25" t="n"/>
+      <c r="J25" s="25" t="n"/>
+      <c r="K25" s="25" t="n"/>
+      <c r="L25" s="25" t="n"/>
+      <c r="M25" s="26" t="n"/>
+      <c r="O25" s="32" t="inlineStr">
+        <is>
+          <t>交通費</t>
+        </is>
+      </c>
+      <c r="P25" s="33">
+        <f>L34*500</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B26" s="11" t="n">
+        <v>45131</v>
+      </c>
+      <c r="C26" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D26" s="53" t="n"/>
+      <c r="E26" s="54" t="n"/>
+      <c r="F26" s="52">
+        <f>E26-D26</f>
+        <v/>
+      </c>
+      <c r="G26" s="23" t="n"/>
+      <c r="H26" s="24" t="n"/>
+      <c r="I26" s="25" t="n"/>
+      <c r="J26" s="25" t="n"/>
+      <c r="K26" s="25" t="n"/>
+      <c r="L26" s="25" t="n"/>
+      <c r="M26" s="26" t="n"/>
+      <c r="O26" s="34" t="inlineStr">
+        <is>
+          <t>前借</t>
+        </is>
+      </c>
+      <c r="P26" s="30">
+        <f>M34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B27" s="11" t="n">
+        <v>45132</v>
+      </c>
+      <c r="C27" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D27" s="53" t="n"/>
+      <c r="E27" s="54" t="n"/>
+      <c r="F27" s="52">
+        <f>E27-D27</f>
+        <v/>
+      </c>
+      <c r="G27" s="23" t="n"/>
+      <c r="H27" s="24" t="n"/>
+      <c r="I27" s="25" t="n"/>
+      <c r="J27" s="25" t="n"/>
+      <c r="K27" s="25" t="n"/>
+      <c r="L27" s="25" t="n"/>
+      <c r="M27" s="26" t="n"/>
+    </row>
+    <row r="28" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B28" s="11" t="n">
+        <v>45133</v>
+      </c>
+      <c r="C28" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D28" s="53" t="n"/>
+      <c r="E28" s="54" t="n"/>
+      <c r="F28" s="52">
+        <f>E28-D28</f>
+        <v/>
+      </c>
+      <c r="G28" s="23" t="n"/>
+      <c r="H28" s="24" t="n"/>
+      <c r="I28" s="25" t="n"/>
+      <c r="J28" s="25" t="n"/>
+      <c r="K28" s="25" t="n"/>
+      <c r="L28" s="25" t="n"/>
+      <c r="M28" s="26" t="n"/>
+      <c r="O28" s="20" t="inlineStr">
+        <is>
+          <t>支給額</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B29" s="11" t="n">
+        <v>45134</v>
+      </c>
+      <c r="C29" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D29" s="53" t="n"/>
+      <c r="E29" s="54" t="n"/>
+      <c r="F29" s="52">
+        <f>E29-D29</f>
+        <v/>
+      </c>
+      <c r="G29" s="23" t="n"/>
+      <c r="H29" s="24" t="n"/>
+      <c r="I29" s="25" t="n"/>
+      <c r="J29" s="25" t="n"/>
+      <c r="K29" s="25" t="n"/>
+      <c r="L29" s="25" t="n"/>
+      <c r="M29" s="26" t="n"/>
+      <c r="O29" s="31" t="inlineStr">
+        <is>
+          <t>総支給額</t>
+        </is>
+      </c>
+      <c r="P29" s="28">
+        <f>P7+P8+P17+P20+P21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B30" s="11" t="n">
+        <v>45135</v>
+      </c>
+      <c r="C30" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D30" s="53" t="n"/>
+      <c r="E30" s="54" t="n"/>
+      <c r="F30" s="52">
+        <f>E30-D30</f>
+        <v/>
+      </c>
+      <c r="G30" s="23" t="n"/>
+      <c r="H30" s="24" t="n"/>
+      <c r="I30" s="25" t="n"/>
+      <c r="J30" s="25" t="n"/>
+      <c r="K30" s="25" t="n"/>
+      <c r="L30" s="25" t="n"/>
+      <c r="M30" s="26" t="n"/>
+      <c r="O30" s="34" t="inlineStr">
+        <is>
+          <t>差引支給額</t>
+        </is>
+      </c>
+      <c r="P30" s="36">
+        <f>P29-P24-P25-P26-P8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B31" s="11" t="n">
+        <v>45136</v>
+      </c>
+      <c r="C31" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D31" s="53" t="n"/>
+      <c r="E31" s="54" t="n"/>
+      <c r="F31" s="52">
+        <f>E31-D31</f>
+        <v/>
+      </c>
+      <c r="G31" s="23" t="n"/>
+      <c r="H31" s="24" t="n"/>
+      <c r="I31" s="25" t="n"/>
+      <c r="J31" s="25" t="n"/>
+      <c r="K31" s="25" t="n"/>
+      <c r="L31" s="25" t="n"/>
+      <c r="M31" s="26" t="n"/>
+    </row>
+    <row r="32" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B32" s="11" t="n">
+        <v>45137</v>
+      </c>
+      <c r="C32" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D32" s="53" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="E32" s="54" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F32" s="52">
+        <f>E32-D32</f>
+        <v/>
+      </c>
+      <c r="G32" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="25" t="n"/>
+      <c r="K32" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="25" t="n"/>
+      <c r="M32" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="20" t="inlineStr">
+        <is>
+          <t>参考値</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B33" s="48" t="n">
+        <v>45138</v>
+      </c>
+      <c r="C33" s="37" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D33" s="55" t="n"/>
+      <c r="E33" s="56" t="n"/>
+      <c r="F33" s="52">
+        <f>E33-D33</f>
+        <v/>
+      </c>
+      <c r="G33" s="40" t="n"/>
+      <c r="H33" s="41" t="n"/>
+      <c r="I33" s="42" t="n"/>
+      <c r="J33" s="42" t="n"/>
+      <c r="K33" s="42" t="n"/>
+      <c r="L33" s="42" t="n"/>
+      <c r="M33" s="30" t="n"/>
+      <c r="O33" s="31" t="inlineStr">
+        <is>
+          <t>月間売上</t>
+        </is>
+      </c>
+      <c r="P33" s="43">
+        <f>G34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>当月勤務時間合計</t>
+        </is>
+      </c>
+      <c r="F34" s="57">
+        <f>SUM(F3:F33)</f>
+        <v/>
+      </c>
+      <c r="G34" s="45">
+        <f>SUM(G3:G33)</f>
+        <v/>
+      </c>
+      <c r="H34" s="45">
+        <f>SUM(H3:H33)</f>
+        <v/>
+      </c>
+      <c r="I34" s="45">
+        <f>SUM(I3:I33)</f>
+        <v/>
+      </c>
+      <c r="J34" s="45">
+        <f>SUM(J3:J33)</f>
+        <v/>
+      </c>
+      <c r="K34" s="45">
+        <f>SUM(K3:K33)</f>
+        <v/>
+      </c>
+      <c r="L34" s="45">
+        <f>SUM(L3:L33)</f>
+        <v/>
+      </c>
+      <c r="M34" s="46">
+        <f>SUM(M3:M33)</f>
+        <v/>
+      </c>
+      <c r="O34" s="34" t="inlineStr">
+        <is>
+          <t>給率</t>
+        </is>
+      </c>
+      <c r="P34" s="47">
+        <f>P29/P33</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="52" horizontalDpi="360" verticalDpi="360"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col width="8.796875" customWidth="1" style="2" min="1" max="1"/>
+    <col width="8.796875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="5.69921875" customWidth="1" style="3" min="3" max="3"/>
+    <col width="9" customWidth="1" style="2" min="4" max="4"/>
+    <col width="8.796875" customWidth="1" style="2" min="5" max="6"/>
+    <col width="10.8984375" customWidth="1" style="2" min="7" max="7"/>
+    <col width="10.09765625" customWidth="1" style="2" min="8" max="9"/>
+    <col width="10.59765625" customWidth="1" style="2" min="10" max="10"/>
+    <col width="8.796875" customWidth="1" style="2" min="11" max="14"/>
+    <col width="11.8984375" customWidth="1" style="4" min="15" max="15"/>
+    <col width="12.09765625" customWidth="1" style="2" min="16" max="16"/>
+    <col width="8.796875" customWidth="1" style="2" min="17" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>出退勤シート</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>氏名</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>あかり</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.6" customFormat="1" customHeight="1" s="3" thickBot="1">
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>出勤</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>退勤</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>勤務時間</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>売上</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>ドリンク</t>
+        </is>
+      </c>
+      <c r="I2" s="10" t="inlineStr">
+        <is>
+          <t>シャンパン</t>
+        </is>
+      </c>
+      <c r="J2" s="10" t="inlineStr">
+        <is>
+          <t>遅刻・当欠</t>
+        </is>
+      </c>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>バック</t>
+        </is>
+      </c>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>送り</t>
+        </is>
+      </c>
+      <c r="M2" s="6" t="inlineStr">
+        <is>
+          <t>前借</t>
+        </is>
+      </c>
+      <c r="O2" s="4" t="n"/>
+    </row>
+    <row r="3" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B3" s="11" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D3" s="50" t="n"/>
+      <c r="E3" s="51" t="n"/>
+      <c r="F3" s="52">
+        <f>E3-D3</f>
+        <v/>
+      </c>
+      <c r="G3" s="16" t="n"/>
+      <c r="H3" s="17" t="n"/>
+      <c r="I3" s="18" t="n"/>
+      <c r="J3" s="18" t="n"/>
+      <c r="K3" s="18" t="n"/>
+      <c r="L3" s="18" t="n"/>
+      <c r="M3" s="19" t="n"/>
+      <c r="O3" s="20" t="inlineStr">
+        <is>
+          <t>給与</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B4" s="11" t="n">
+        <v>45109</v>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D4" s="53" t="n"/>
+      <c r="E4" s="54" t="n"/>
+      <c r="F4" s="52">
+        <f>E4-D4</f>
+        <v/>
+      </c>
+      <c r="G4" s="23" t="n"/>
+      <c r="H4" s="24" t="n"/>
+      <c r="I4" s="25" t="n"/>
+      <c r="J4" s="25" t="n"/>
+      <c r="K4" s="25" t="n"/>
+      <c r="L4" s="25" t="n"/>
+      <c r="M4" s="26" t="n"/>
+      <c r="O4" s="27" t="inlineStr">
+        <is>
+          <t>出勤日数</t>
+        </is>
+      </c>
+      <c r="P4" s="28">
+        <f>COUNTA(E3:E33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B5" s="11" t="n">
+        <v>45110</v>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D5" s="53" t="n"/>
+      <c r="E5" s="54" t="n"/>
+      <c r="F5" s="52">
+        <f>E5-D5</f>
+        <v/>
+      </c>
+      <c r="G5" s="23" t="n"/>
+      <c r="H5" s="24" t="n"/>
+      <c r="I5" s="25" t="n"/>
+      <c r="J5" s="25" t="n"/>
+      <c r="K5" s="25" t="n"/>
+      <c r="L5" s="25" t="n"/>
+      <c r="M5" s="26" t="n"/>
+      <c r="O5" s="29" t="inlineStr">
+        <is>
+          <t>時給</t>
+        </is>
+      </c>
+      <c r="P5" s="30" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B6" s="11" t="n">
+        <v>45111</v>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D6" s="53" t="n"/>
+      <c r="E6" s="54" t="n"/>
+      <c r="F6" s="52">
+        <f>E6-D6</f>
+        <v/>
+      </c>
+      <c r="G6" s="23" t="n"/>
+      <c r="H6" s="24" t="n"/>
+      <c r="I6" s="25" t="n"/>
+      <c r="J6" s="25" t="n"/>
+      <c r="K6" s="25" t="n"/>
+      <c r="L6" s="25" t="n"/>
+      <c r="M6" s="26" t="n"/>
+    </row>
+    <row r="7" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B7" s="11" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D7" s="53" t="n"/>
+      <c r="E7" s="54" t="n"/>
+      <c r="F7" s="52">
+        <f>E7-D7</f>
+        <v/>
+      </c>
+      <c r="G7" s="23" t="n"/>
+      <c r="H7" s="24" t="n"/>
+      <c r="I7" s="25" t="n"/>
+      <c r="J7" s="25" t="n"/>
+      <c r="K7" s="25" t="n"/>
+      <c r="L7" s="25" t="n"/>
+      <c r="M7" s="26" t="n"/>
+      <c r="O7" s="27" t="inlineStr">
+        <is>
+          <t>基本給</t>
+        </is>
+      </c>
+      <c r="P7" s="28">
+        <f>P5*F34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B8" s="11" t="n">
+        <v>45113</v>
+      </c>
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D8" s="53" t="n"/>
+      <c r="E8" s="54" t="n"/>
+      <c r="F8" s="52">
+        <f>E8-D8</f>
+        <v/>
+      </c>
+      <c r="G8" s="23" t="n"/>
+      <c r="H8" s="24" t="n"/>
+      <c r="I8" s="25" t="n"/>
+      <c r="J8" s="25" t="n"/>
+      <c r="K8" s="25" t="n"/>
+      <c r="L8" s="25" t="n"/>
+      <c r="M8" s="26" t="n"/>
+      <c r="O8" s="29" t="inlineStr">
+        <is>
+          <t>バック</t>
+        </is>
+      </c>
+      <c r="P8" s="30">
+        <f>K34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B9" s="11" t="n">
+        <v>45114</v>
+      </c>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D9" s="53" t="n"/>
+      <c r="E9" s="54" t="n"/>
+      <c r="F9" s="52">
+        <f>E9-D9</f>
+        <v/>
+      </c>
+      <c r="G9" s="23" t="n"/>
+      <c r="H9" s="24" t="n"/>
+      <c r="I9" s="25" t="n"/>
+      <c r="J9" s="25" t="n"/>
+      <c r="K9" s="25" t="n"/>
+      <c r="L9" s="25" t="n"/>
+      <c r="M9" s="26" t="n"/>
+    </row>
+    <row r="10" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B10" s="11" t="n">
+        <v>45115</v>
+      </c>
+      <c r="C10" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D10" s="53" t="n"/>
+      <c r="E10" s="54" t="n"/>
+      <c r="F10" s="52">
+        <f>E10-D10</f>
+        <v/>
+      </c>
+      <c r="G10" s="23" t="n"/>
+      <c r="H10" s="24" t="n"/>
+      <c r="I10" s="25" t="n"/>
+      <c r="J10" s="25" t="n"/>
+      <c r="K10" s="25" t="n"/>
+      <c r="L10" s="25" t="n"/>
+      <c r="M10" s="26" t="n"/>
+      <c r="O10" s="20" t="inlineStr">
+        <is>
+          <t>賞与</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B11" s="11" t="n">
+        <v>45116</v>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D11" s="53" t="n"/>
+      <c r="E11" s="54" t="n"/>
+      <c r="F11" s="52">
+        <f>E11-D11</f>
+        <v/>
+      </c>
+      <c r="G11" s="23" t="n"/>
+      <c r="H11" s="24" t="n"/>
+      <c r="I11" s="25" t="n"/>
+      <c r="J11" s="25" t="n"/>
+      <c r="K11" s="25" t="n"/>
+      <c r="L11" s="25" t="n"/>
+      <c r="M11" s="26" t="n"/>
+      <c r="O11" s="31" t="inlineStr">
+        <is>
+          <t>チームバック</t>
+        </is>
+      </c>
+      <c r="P11" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B12" s="11" t="n">
+        <v>45117</v>
+      </c>
+      <c r="C12" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D12" s="53" t="n"/>
+      <c r="E12" s="54" t="n"/>
+      <c r="F12" s="52">
+        <f>E12-D12</f>
+        <v/>
+      </c>
+      <c r="G12" s="23" t="n"/>
+      <c r="H12" s="24" t="n"/>
+      <c r="I12" s="25" t="n"/>
+      <c r="J12" s="25" t="n"/>
+      <c r="K12" s="25" t="n"/>
+      <c r="L12" s="25" t="n"/>
+      <c r="M12" s="26" t="n"/>
+      <c r="O12" s="32" t="inlineStr">
+        <is>
+          <t>売上1位</t>
+        </is>
+      </c>
+      <c r="P12" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B13" s="11" t="n">
+        <v>45118</v>
+      </c>
+      <c r="C13" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D13" s="53" t="n"/>
+      <c r="E13" s="54" t="n"/>
+      <c r="F13" s="52">
+        <f>E13-D13</f>
+        <v/>
+      </c>
+      <c r="G13" s="23" t="n"/>
+      <c r="H13" s="24" t="n"/>
+      <c r="I13" s="25" t="n"/>
+      <c r="J13" s="25" t="n"/>
+      <c r="K13" s="25" t="n"/>
+      <c r="L13" s="25" t="n"/>
+      <c r="M13" s="26" t="n"/>
+      <c r="O13" s="32" t="inlineStr">
+        <is>
+          <t>月間指名1位</t>
+        </is>
+      </c>
+      <c r="P13" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B14" s="11" t="n">
+        <v>45119</v>
+      </c>
+      <c r="C14" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D14" s="53" t="n"/>
+      <c r="E14" s="54" t="n"/>
+      <c r="F14" s="52">
+        <f>E14-D14</f>
+        <v/>
+      </c>
+      <c r="G14" s="23" t="n"/>
+      <c r="H14" s="24" t="n"/>
+      <c r="I14" s="25" t="n"/>
+      <c r="J14" s="25" t="n"/>
+      <c r="K14" s="25" t="n"/>
+      <c r="L14" s="25" t="n"/>
+      <c r="M14" s="26" t="n"/>
+      <c r="O14" s="32" t="inlineStr">
+        <is>
+          <t>月間同伴1位</t>
+        </is>
+      </c>
+      <c r="P14" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B15" s="11" t="n">
+        <v>45120</v>
+      </c>
+      <c r="C15" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D15" s="53" t="n"/>
+      <c r="E15" s="54" t="n"/>
+      <c r="F15" s="52">
+        <f>E15-D15</f>
+        <v/>
+      </c>
+      <c r="G15" s="23" t="n"/>
+      <c r="H15" s="24" t="n"/>
+      <c r="I15" s="25" t="n"/>
+      <c r="J15" s="25" t="n"/>
+      <c r="K15" s="25" t="n"/>
+      <c r="L15" s="25" t="n"/>
+      <c r="M15" s="26" t="n"/>
+      <c r="O15" s="32" t="inlineStr">
+        <is>
+          <t>シャンパン</t>
+        </is>
+      </c>
+      <c r="P15" s="33">
+        <f>I34*10%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B16" s="11" t="n">
+        <v>45121</v>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D16" s="53" t="n"/>
+      <c r="E16" s="54" t="n"/>
+      <c r="F16" s="52">
+        <f>E16-D16</f>
+        <v/>
+      </c>
+      <c r="G16" s="23" t="n"/>
+      <c r="H16" s="24" t="n"/>
+      <c r="I16" s="25" t="n"/>
+      <c r="J16" s="25" t="n"/>
+      <c r="K16" s="25" t="n"/>
+      <c r="L16" s="25" t="n"/>
+      <c r="M16" s="26" t="n"/>
+      <c r="O16" s="34" t="inlineStr">
+        <is>
+          <t>ドリンク</t>
+        </is>
+      </c>
+      <c r="P16" s="30">
+        <f>H34*200</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B17" s="11" t="n">
+        <v>45122</v>
+      </c>
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D17" s="53" t="n"/>
+      <c r="E17" s="54" t="n"/>
+      <c r="F17" s="52">
+        <f>E17-D17</f>
+        <v/>
+      </c>
+      <c r="G17" s="23" t="n"/>
+      <c r="H17" s="24" t="n"/>
+      <c r="I17" s="25" t="n"/>
+      <c r="J17" s="25" t="n"/>
+      <c r="K17" s="25" t="n"/>
+      <c r="L17" s="25" t="n"/>
+      <c r="M17" s="26" t="n"/>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="P17" s="2">
+        <f>SUM(P11:P16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B18" s="11" t="n">
+        <v>45123</v>
+      </c>
+      <c r="C18" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D18" s="53" t="n"/>
+      <c r="E18" s="54" t="n"/>
+      <c r="F18" s="52">
+        <f>E18-D18</f>
+        <v/>
+      </c>
+      <c r="G18" s="23" t="n"/>
+      <c r="H18" s="24" t="n"/>
+      <c r="I18" s="25" t="n"/>
+      <c r="J18" s="25" t="n"/>
+      <c r="K18" s="25" t="n"/>
+      <c r="L18" s="25" t="n"/>
+      <c r="M18" s="26" t="n"/>
+    </row>
+    <row r="19" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B19" s="11" t="n">
+        <v>45124</v>
+      </c>
+      <c r="C19" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D19" s="53" t="n"/>
+      <c r="E19" s="54" t="n"/>
+      <c r="F19" s="52">
+        <f>E19-D19</f>
+        <v/>
+      </c>
+      <c r="G19" s="23" t="n"/>
+      <c r="H19" s="24" t="n"/>
+      <c r="I19" s="25" t="n"/>
+      <c r="J19" s="25" t="n"/>
+      <c r="K19" s="25" t="n"/>
+      <c r="L19" s="25" t="n"/>
+      <c r="M19" s="26" t="n"/>
+      <c r="O19" s="20" t="inlineStr">
+        <is>
+          <t>手当</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B20" s="11" t="n">
+        <v>45125</v>
+      </c>
+      <c r="C20" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D20" s="53" t="n"/>
+      <c r="E20" s="54" t="n"/>
+      <c r="F20" s="52">
+        <f>E20-D20</f>
+        <v/>
+      </c>
+      <c r="G20" s="23" t="n"/>
+      <c r="H20" s="24" t="n"/>
+      <c r="I20" s="25" t="n"/>
+      <c r="J20" s="25" t="n"/>
+      <c r="K20" s="25" t="n"/>
+      <c r="L20" s="25" t="n"/>
+      <c r="M20" s="26" t="n"/>
+      <c r="O20" s="31" t="inlineStr">
+        <is>
+          <t>シフト手当</t>
+        </is>
+      </c>
+      <c r="P20" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B21" s="11" t="n">
+        <v>45126</v>
+      </c>
+      <c r="C21" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D21" s="53" t="n"/>
+      <c r="E21" s="54" t="n"/>
+      <c r="F21" s="52">
+        <f>E21-D21</f>
+        <v/>
+      </c>
+      <c r="G21" s="23" t="n"/>
+      <c r="H21" s="24" t="n"/>
+      <c r="I21" s="25" t="n"/>
+      <c r="J21" s="25" t="n"/>
+      <c r="K21" s="25" t="n"/>
+      <c r="L21" s="25" t="n"/>
+      <c r="M21" s="26" t="n"/>
+      <c r="O21" s="34" t="inlineStr">
+        <is>
+          <t>役職手当</t>
+        </is>
+      </c>
+      <c r="P21" s="30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B22" s="11" t="n">
+        <v>45127</v>
+      </c>
+      <c r="C22" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D22" s="53" t="n"/>
+      <c r="E22" s="54" t="n"/>
+      <c r="F22" s="52">
+        <f>E22-D22</f>
+        <v/>
+      </c>
+      <c r="G22" s="23" t="n"/>
+      <c r="H22" s="24" t="n"/>
+      <c r="I22" s="25" t="n"/>
+      <c r="J22" s="25" t="n"/>
+      <c r="K22" s="25" t="n"/>
+      <c r="L22" s="25" t="n"/>
+      <c r="M22" s="26" t="n"/>
+    </row>
+    <row r="23" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B23" s="11" t="n">
+        <v>45128</v>
+      </c>
+      <c r="C23" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D23" s="53" t="n"/>
+      <c r="E23" s="54" t="n"/>
+      <c r="F23" s="52">
+        <f>E23-D23</f>
+        <v/>
+      </c>
+      <c r="G23" s="23" t="n"/>
+      <c r="H23" s="24" t="n"/>
+      <c r="I23" s="25" t="n"/>
+      <c r="J23" s="25" t="n"/>
+      <c r="K23" s="25" t="n"/>
+      <c r="L23" s="25" t="n"/>
+      <c r="M23" s="26" t="n"/>
+      <c r="O23" s="20" t="inlineStr">
+        <is>
+          <t>控除</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B24" s="11" t="n">
+        <v>45129</v>
+      </c>
+      <c r="C24" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D24" s="53" t="n"/>
+      <c r="E24" s="54" t="n"/>
+      <c r="F24" s="52">
+        <f>E24-D24</f>
+        <v/>
+      </c>
+      <c r="G24" s="23" t="n"/>
+      <c r="H24" s="24" t="n"/>
+      <c r="I24" s="25" t="n"/>
+      <c r="J24" s="25" t="n"/>
+      <c r="K24" s="25" t="n"/>
+      <c r="L24" s="25" t="n"/>
+      <c r="M24" s="26" t="n"/>
+      <c r="O24" s="31" t="inlineStr">
+        <is>
+          <t>源泉徴収</t>
+        </is>
+      </c>
+      <c r="P24" s="35">
+        <f>P29*10.21%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B25" s="11" t="n">
+        <v>45130</v>
+      </c>
+      <c r="C25" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D25" s="53" t="n"/>
+      <c r="E25" s="54" t="n"/>
+      <c r="F25" s="52">
+        <f>E25-D25</f>
+        <v/>
+      </c>
+      <c r="G25" s="23" t="n"/>
+      <c r="H25" s="24" t="n"/>
+      <c r="I25" s="25" t="n"/>
+      <c r="J25" s="25" t="n"/>
+      <c r="K25" s="25" t="n"/>
+      <c r="L25" s="25" t="n"/>
+      <c r="M25" s="26" t="n"/>
+      <c r="O25" s="32" t="inlineStr">
+        <is>
+          <t>交通費</t>
+        </is>
+      </c>
+      <c r="P25" s="33">
+        <f>L34*500</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B26" s="11" t="n">
+        <v>45131</v>
+      </c>
+      <c r="C26" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D26" s="53" t="n"/>
+      <c r="E26" s="54" t="n"/>
+      <c r="F26" s="52">
+        <f>E26-D26</f>
+        <v/>
+      </c>
+      <c r="G26" s="23" t="n"/>
+      <c r="H26" s="24" t="n"/>
+      <c r="I26" s="25" t="n"/>
+      <c r="J26" s="25" t="n"/>
+      <c r="K26" s="25" t="n"/>
+      <c r="L26" s="25" t="n"/>
+      <c r="M26" s="26" t="n"/>
+      <c r="O26" s="34" t="inlineStr">
+        <is>
+          <t>前借</t>
+        </is>
+      </c>
+      <c r="P26" s="30">
+        <f>M34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B27" s="11" t="n">
+        <v>45132</v>
+      </c>
+      <c r="C27" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D27" s="53" t="n"/>
+      <c r="E27" s="54" t="n"/>
+      <c r="F27" s="52">
+        <f>E27-D27</f>
+        <v/>
+      </c>
+      <c r="G27" s="23" t="n"/>
+      <c r="H27" s="24" t="n"/>
+      <c r="I27" s="25" t="n"/>
+      <c r="J27" s="25" t="n"/>
+      <c r="K27" s="25" t="n"/>
+      <c r="L27" s="25" t="n"/>
+      <c r="M27" s="26" t="n"/>
+    </row>
+    <row r="28" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B28" s="11" t="n">
+        <v>45133</v>
+      </c>
+      <c r="C28" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D28" s="53" t="n"/>
+      <c r="E28" s="54" t="n"/>
+      <c r="F28" s="52">
+        <f>E28-D28</f>
+        <v/>
+      </c>
+      <c r="G28" s="23" t="n"/>
+      <c r="H28" s="24" t="n"/>
+      <c r="I28" s="25" t="n"/>
+      <c r="J28" s="25" t="n"/>
+      <c r="K28" s="25" t="n"/>
+      <c r="L28" s="25" t="n"/>
+      <c r="M28" s="26" t="n"/>
+      <c r="O28" s="20" t="inlineStr">
+        <is>
+          <t>支給額</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B29" s="11" t="n">
+        <v>45134</v>
+      </c>
+      <c r="C29" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D29" s="53" t="n"/>
+      <c r="E29" s="54" t="n"/>
+      <c r="F29" s="52">
+        <f>E29-D29</f>
+        <v/>
+      </c>
+      <c r="G29" s="23" t="n"/>
+      <c r="H29" s="24" t="n"/>
+      <c r="I29" s="25" t="n"/>
+      <c r="J29" s="25" t="n"/>
+      <c r="K29" s="25" t="n"/>
+      <c r="L29" s="25" t="n"/>
+      <c r="M29" s="26" t="n"/>
+      <c r="O29" s="31" t="inlineStr">
+        <is>
+          <t>総支給額</t>
+        </is>
+      </c>
+      <c r="P29" s="28">
+        <f>P7+P8+P17+P20+P21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B30" s="11" t="n">
+        <v>45135</v>
+      </c>
+      <c r="C30" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D30" s="53" t="n"/>
+      <c r="E30" s="54" t="n"/>
+      <c r="F30" s="52">
+        <f>E30-D30</f>
+        <v/>
+      </c>
+      <c r="G30" s="23" t="n"/>
+      <c r="H30" s="24" t="n"/>
+      <c r="I30" s="25" t="n"/>
+      <c r="J30" s="25" t="n"/>
+      <c r="K30" s="25" t="n"/>
+      <c r="L30" s="25" t="n"/>
+      <c r="M30" s="26" t="n"/>
+      <c r="O30" s="34" t="inlineStr">
+        <is>
+          <t>差引支給額</t>
+        </is>
+      </c>
+      <c r="P30" s="36">
+        <f>P29-P24-P25-P26-P8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B31" s="11" t="n">
+        <v>45136</v>
+      </c>
+      <c r="C31" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D31" s="53" t="n"/>
+      <c r="E31" s="54" t="n"/>
+      <c r="F31" s="52">
+        <f>E31-D31</f>
+        <v/>
+      </c>
+      <c r="G31" s="23" t="n"/>
+      <c r="H31" s="24" t="n"/>
+      <c r="I31" s="25" t="n"/>
+      <c r="J31" s="25" t="n"/>
+      <c r="K31" s="25" t="n"/>
+      <c r="L31" s="25" t="n"/>
+      <c r="M31" s="26" t="n"/>
+    </row>
+    <row r="32" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B32" s="11" t="n">
+        <v>45137</v>
+      </c>
+      <c r="C32" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D32" s="53" t="n"/>
+      <c r="E32" s="54" t="n"/>
+      <c r="F32" s="52">
+        <f>E32-D32</f>
+        <v/>
+      </c>
+      <c r="G32" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="25" t="n"/>
+      <c r="K32" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="25" t="n"/>
+      <c r="M32" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="20" t="inlineStr">
+        <is>
+          <t>参考値</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B33" s="48" t="n">
+        <v>45138</v>
+      </c>
+      <c r="C33" s="37" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D33" s="55" t="n"/>
+      <c r="E33" s="56" t="n"/>
+      <c r="F33" s="52">
+        <f>E33-D33</f>
+        <v/>
+      </c>
+      <c r="G33" s="40" t="n"/>
+      <c r="H33" s="41" t="n"/>
+      <c r="I33" s="42" t="n"/>
+      <c r="J33" s="42" t="n"/>
+      <c r="K33" s="42" t="n"/>
+      <c r="L33" s="42" t="n"/>
+      <c r="M33" s="30" t="n"/>
+      <c r="O33" s="31" t="inlineStr">
+        <is>
+          <t>月間売上</t>
+        </is>
+      </c>
+      <c r="P33" s="43">
+        <f>G34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>当月勤務時間合計</t>
+        </is>
+      </c>
+      <c r="F34" s="57">
+        <f>SUM(F3:F33)</f>
+        <v/>
+      </c>
+      <c r="G34" s="45">
+        <f>SUM(G3:G33)</f>
+        <v/>
+      </c>
+      <c r="H34" s="45">
+        <f>SUM(H3:H33)</f>
+        <v/>
+      </c>
+      <c r="I34" s="45">
+        <f>SUM(I3:I33)</f>
+        <v/>
+      </c>
+      <c r="J34" s="45">
+        <f>SUM(J3:J33)</f>
+        <v/>
+      </c>
+      <c r="K34" s="45">
+        <f>SUM(K3:K33)</f>
+        <v/>
+      </c>
+      <c r="L34" s="45">
+        <f>SUM(L3:L33)</f>
+        <v/>
+      </c>
+      <c r="M34" s="46">
+        <f>SUM(M3:M33)</f>
+        <v/>
+      </c>
+      <c r="O34" s="34" t="inlineStr">
+        <is>
+          <t>給率</t>
+        </is>
+      </c>
+      <c r="P34" s="47">
+        <f>P29/P33</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="52" horizontalDpi="360" verticalDpi="360"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col width="8.796875" customWidth="1" style="2" min="1" max="1"/>
+    <col width="8.796875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="5.69921875" customWidth="1" style="3" min="3" max="3"/>
+    <col width="9" customWidth="1" style="2" min="4" max="4"/>
+    <col width="8.796875" customWidth="1" style="2" min="5" max="6"/>
+    <col width="10.8984375" customWidth="1" style="2" min="7" max="7"/>
+    <col width="10.09765625" customWidth="1" style="2" min="8" max="9"/>
+    <col width="10.59765625" customWidth="1" style="2" min="10" max="10"/>
+    <col width="8.796875" customWidth="1" style="2" min="11" max="14"/>
+    <col width="11.8984375" customWidth="1" style="4" min="15" max="15"/>
+    <col width="12.09765625" customWidth="1" style="2" min="16" max="16"/>
+    <col width="8.796875" customWidth="1" style="2" min="17" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>出退勤シート</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>氏名</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>ひとみ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.6" customFormat="1" customHeight="1" s="3" thickBot="1">
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>出勤</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>退勤</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>勤務時間</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>売上</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>ドリンク</t>
+        </is>
+      </c>
+      <c r="I2" s="10" t="inlineStr">
+        <is>
+          <t>シャンパン</t>
+        </is>
+      </c>
+      <c r="J2" s="10" t="inlineStr">
+        <is>
+          <t>遅刻・当欠</t>
+        </is>
+      </c>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>バック</t>
+        </is>
+      </c>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>送り</t>
+        </is>
+      </c>
+      <c r="M2" s="6" t="inlineStr">
+        <is>
+          <t>前借</t>
+        </is>
+      </c>
+      <c r="O2" s="4" t="n"/>
+    </row>
+    <row r="3" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B3" s="11" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D3" s="50" t="n"/>
+      <c r="E3" s="51" t="n"/>
+      <c r="F3" s="52">
+        <f>E3-D3</f>
+        <v/>
+      </c>
+      <c r="G3" s="16" t="n"/>
+      <c r="H3" s="17" t="n"/>
+      <c r="I3" s="18" t="n"/>
+      <c r="J3" s="18" t="n"/>
+      <c r="K3" s="18" t="n"/>
+      <c r="L3" s="18" t="n"/>
+      <c r="M3" s="19" t="n"/>
+      <c r="O3" s="20" t="inlineStr">
+        <is>
+          <t>給与</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B4" s="11" t="n">
+        <v>45109</v>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D4" s="53" t="n"/>
+      <c r="E4" s="54" t="n"/>
+      <c r="F4" s="52">
+        <f>E4-D4</f>
+        <v/>
+      </c>
+      <c r="G4" s="23" t="n"/>
+      <c r="H4" s="24" t="n"/>
+      <c r="I4" s="25" t="n"/>
+      <c r="J4" s="25" t="n"/>
+      <c r="K4" s="25" t="n"/>
+      <c r="L4" s="25" t="n"/>
+      <c r="M4" s="26" t="n"/>
+      <c r="O4" s="27" t="inlineStr">
+        <is>
+          <t>出勤日数</t>
+        </is>
+      </c>
+      <c r="P4" s="28">
+        <f>COUNTA(E3:E33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B5" s="11" t="n">
+        <v>45110</v>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D5" s="53" t="n"/>
+      <c r="E5" s="54" t="n"/>
+      <c r="F5" s="52">
+        <f>E5-D5</f>
+        <v/>
+      </c>
+      <c r="G5" s="23" t="n"/>
+      <c r="H5" s="24" t="n"/>
+      <c r="I5" s="25" t="n"/>
+      <c r="J5" s="25" t="n"/>
+      <c r="K5" s="25" t="n"/>
+      <c r="L5" s="25" t="n"/>
+      <c r="M5" s="26" t="n"/>
+      <c r="O5" s="29" t="inlineStr">
+        <is>
+          <t>時給</t>
+        </is>
+      </c>
+      <c r="P5" s="30" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B6" s="11" t="n">
+        <v>45111</v>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D6" s="53" t="n"/>
+      <c r="E6" s="54" t="n"/>
+      <c r="F6" s="52">
+        <f>E6-D6</f>
+        <v/>
+      </c>
+      <c r="G6" s="23" t="n"/>
+      <c r="H6" s="24" t="n"/>
+      <c r="I6" s="25" t="n"/>
+      <c r="J6" s="25" t="n"/>
+      <c r="K6" s="25" t="n"/>
+      <c r="L6" s="25" t="n"/>
+      <c r="M6" s="26" t="n"/>
+    </row>
+    <row r="7" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B7" s="11" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D7" s="53" t="n"/>
+      <c r="E7" s="54" t="n"/>
+      <c r="F7" s="52">
+        <f>E7-D7</f>
+        <v/>
+      </c>
+      <c r="G7" s="23" t="n"/>
+      <c r="H7" s="24" t="n"/>
+      <c r="I7" s="25" t="n"/>
+      <c r="J7" s="25" t="n"/>
+      <c r="K7" s="25" t="n"/>
+      <c r="L7" s="25" t="n"/>
+      <c r="M7" s="26" t="n"/>
+      <c r="O7" s="27" t="inlineStr">
+        <is>
+          <t>基本給</t>
+        </is>
+      </c>
+      <c r="P7" s="28">
+        <f>P5*F34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B8" s="11" t="n">
+        <v>45113</v>
+      </c>
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D8" s="53" t="n"/>
+      <c r="E8" s="54" t="n"/>
+      <c r="F8" s="52">
+        <f>E8-D8</f>
+        <v/>
+      </c>
+      <c r="G8" s="23" t="n"/>
+      <c r="H8" s="24" t="n"/>
+      <c r="I8" s="25" t="n"/>
+      <c r="J8" s="25" t="n"/>
+      <c r="K8" s="25" t="n"/>
+      <c r="L8" s="25" t="n"/>
+      <c r="M8" s="26" t="n"/>
+      <c r="O8" s="29" t="inlineStr">
+        <is>
+          <t>バック</t>
+        </is>
+      </c>
+      <c r="P8" s="30">
+        <f>K34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B9" s="11" t="n">
+        <v>45114</v>
+      </c>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D9" s="53" t="n"/>
+      <c r="E9" s="54" t="n"/>
+      <c r="F9" s="52">
+        <f>E9-D9</f>
+        <v/>
+      </c>
+      <c r="G9" s="23" t="n"/>
+      <c r="H9" s="24" t="n"/>
+      <c r="I9" s="25" t="n"/>
+      <c r="J9" s="25" t="n"/>
+      <c r="K9" s="25" t="n"/>
+      <c r="L9" s="25" t="n"/>
+      <c r="M9" s="26" t="n"/>
+    </row>
+    <row r="10" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B10" s="11" t="n">
+        <v>45115</v>
+      </c>
+      <c r="C10" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D10" s="53" t="n"/>
+      <c r="E10" s="54" t="n"/>
+      <c r="F10" s="52">
+        <f>E10-D10</f>
+        <v/>
+      </c>
+      <c r="G10" s="23" t="n"/>
+      <c r="H10" s="24" t="n"/>
+      <c r="I10" s="25" t="n"/>
+      <c r="J10" s="25" t="n"/>
+      <c r="K10" s="25" t="n"/>
+      <c r="L10" s="25" t="n"/>
+      <c r="M10" s="26" t="n"/>
+      <c r="O10" s="20" t="inlineStr">
+        <is>
+          <t>賞与</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B11" s="11" t="n">
+        <v>45116</v>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D11" s="53" t="n"/>
+      <c r="E11" s="54" t="n"/>
+      <c r="F11" s="52">
+        <f>E11-D11</f>
+        <v/>
+      </c>
+      <c r="G11" s="23" t="n"/>
+      <c r="H11" s="24" t="n"/>
+      <c r="I11" s="25" t="n"/>
+      <c r="J11" s="25" t="n"/>
+      <c r="K11" s="25" t="n"/>
+      <c r="L11" s="25" t="n"/>
+      <c r="M11" s="26" t="n"/>
+      <c r="O11" s="31" t="inlineStr">
+        <is>
+          <t>チームバック</t>
+        </is>
+      </c>
+      <c r="P11" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B12" s="11" t="n">
+        <v>45117</v>
+      </c>
+      <c r="C12" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D12" s="53" t="n"/>
+      <c r="E12" s="54" t="n"/>
+      <c r="F12" s="52">
+        <f>E12-D12</f>
+        <v/>
+      </c>
+      <c r="G12" s="23" t="n"/>
+      <c r="H12" s="24" t="n"/>
+      <c r="I12" s="25" t="n"/>
+      <c r="J12" s="25" t="n"/>
+      <c r="K12" s="25" t="n"/>
+      <c r="L12" s="25" t="n"/>
+      <c r="M12" s="26" t="n"/>
+      <c r="O12" s="32" t="inlineStr">
+        <is>
+          <t>売上1位</t>
+        </is>
+      </c>
+      <c r="P12" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B13" s="11" t="n">
+        <v>45118</v>
+      </c>
+      <c r="C13" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D13" s="53" t="n"/>
+      <c r="E13" s="54" t="n"/>
+      <c r="F13" s="52">
+        <f>E13-D13</f>
+        <v/>
+      </c>
+      <c r="G13" s="23" t="n"/>
+      <c r="H13" s="24" t="n"/>
+      <c r="I13" s="25" t="n"/>
+      <c r="J13" s="25" t="n"/>
+      <c r="K13" s="25" t="n"/>
+      <c r="L13" s="25" t="n"/>
+      <c r="M13" s="26" t="n"/>
+      <c r="O13" s="32" t="inlineStr">
+        <is>
+          <t>月間指名1位</t>
+        </is>
+      </c>
+      <c r="P13" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B14" s="11" t="n">
+        <v>45119</v>
+      </c>
+      <c r="C14" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D14" s="53" t="n"/>
+      <c r="E14" s="54" t="n"/>
+      <c r="F14" s="52">
+        <f>E14-D14</f>
+        <v/>
+      </c>
+      <c r="G14" s="23" t="n"/>
+      <c r="H14" s="24" t="n"/>
+      <c r="I14" s="25" t="n"/>
+      <c r="J14" s="25" t="n"/>
+      <c r="K14" s="25" t="n"/>
+      <c r="L14" s="25" t="n"/>
+      <c r="M14" s="26" t="n"/>
+      <c r="O14" s="32" t="inlineStr">
+        <is>
+          <t>月間同伴1位</t>
+        </is>
+      </c>
+      <c r="P14" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B15" s="11" t="n">
+        <v>45120</v>
+      </c>
+      <c r="C15" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D15" s="53" t="n"/>
+      <c r="E15" s="54" t="n"/>
+      <c r="F15" s="52">
+        <f>E15-D15</f>
+        <v/>
+      </c>
+      <c r="G15" s="23" t="n"/>
+      <c r="H15" s="24" t="n"/>
+      <c r="I15" s="25" t="n"/>
+      <c r="J15" s="25" t="n"/>
+      <c r="K15" s="25" t="n"/>
+      <c r="L15" s="25" t="n"/>
+      <c r="M15" s="26" t="n"/>
+      <c r="O15" s="32" t="inlineStr">
+        <is>
+          <t>シャンパン</t>
+        </is>
+      </c>
+      <c r="P15" s="33">
+        <f>I34*10%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B16" s="11" t="n">
+        <v>45121</v>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D16" s="53" t="n"/>
+      <c r="E16" s="54" t="n"/>
+      <c r="F16" s="52">
+        <f>E16-D16</f>
+        <v/>
+      </c>
+      <c r="G16" s="23" t="n"/>
+      <c r="H16" s="24" t="n"/>
+      <c r="I16" s="25" t="n"/>
+      <c r="J16" s="25" t="n"/>
+      <c r="K16" s="25" t="n"/>
+      <c r="L16" s="25" t="n"/>
+      <c r="M16" s="26" t="n"/>
+      <c r="O16" s="34" t="inlineStr">
+        <is>
+          <t>ドリンク</t>
+        </is>
+      </c>
+      <c r="P16" s="30">
+        <f>H34*200</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B17" s="11" t="n">
+        <v>45122</v>
+      </c>
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D17" s="53" t="n"/>
+      <c r="E17" s="54" t="n"/>
+      <c r="F17" s="52">
+        <f>E17-D17</f>
+        <v/>
+      </c>
+      <c r="G17" s="23" t="n"/>
+      <c r="H17" s="24" t="n"/>
+      <c r="I17" s="25" t="n"/>
+      <c r="J17" s="25" t="n"/>
+      <c r="K17" s="25" t="n"/>
+      <c r="L17" s="25" t="n"/>
+      <c r="M17" s="26" t="n"/>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="P17" s="2">
+        <f>SUM(P11:P16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B18" s="11" t="n">
+        <v>45123</v>
+      </c>
+      <c r="C18" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D18" s="53" t="n"/>
+      <c r="E18" s="54" t="n"/>
+      <c r="F18" s="52">
+        <f>E18-D18</f>
+        <v/>
+      </c>
+      <c r="G18" s="23" t="n"/>
+      <c r="H18" s="24" t="n"/>
+      <c r="I18" s="25" t="n"/>
+      <c r="J18" s="25" t="n"/>
+      <c r="K18" s="25" t="n"/>
+      <c r="L18" s="25" t="n"/>
+      <c r="M18" s="26" t="n"/>
+    </row>
+    <row r="19" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B19" s="11" t="n">
+        <v>45124</v>
+      </c>
+      <c r="C19" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D19" s="53" t="n"/>
+      <c r="E19" s="54" t="n"/>
+      <c r="F19" s="52">
+        <f>E19-D19</f>
+        <v/>
+      </c>
+      <c r="G19" s="23" t="n"/>
+      <c r="H19" s="24" t="n"/>
+      <c r="I19" s="25" t="n"/>
+      <c r="J19" s="25" t="n"/>
+      <c r="K19" s="25" t="n"/>
+      <c r="L19" s="25" t="n"/>
+      <c r="M19" s="26" t="n"/>
+      <c r="O19" s="20" t="inlineStr">
+        <is>
+          <t>手当</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B20" s="11" t="n">
+        <v>45125</v>
+      </c>
+      <c r="C20" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D20" s="53" t="n"/>
+      <c r="E20" s="54" t="n"/>
+      <c r="F20" s="52">
+        <f>E20-D20</f>
+        <v/>
+      </c>
+      <c r="G20" s="23" t="n"/>
+      <c r="H20" s="24" t="n"/>
+      <c r="I20" s="25" t="n"/>
+      <c r="J20" s="25" t="n"/>
+      <c r="K20" s="25" t="n"/>
+      <c r="L20" s="25" t="n"/>
+      <c r="M20" s="26" t="n"/>
+      <c r="O20" s="31" t="inlineStr">
+        <is>
+          <t>シフト手当</t>
+        </is>
+      </c>
+      <c r="P20" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B21" s="11" t="n">
+        <v>45126</v>
+      </c>
+      <c r="C21" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D21" s="53" t="n"/>
+      <c r="E21" s="54" t="n"/>
+      <c r="F21" s="52">
+        <f>E21-D21</f>
+        <v/>
+      </c>
+      <c r="G21" s="23" t="n"/>
+      <c r="H21" s="24" t="n"/>
+      <c r="I21" s="25" t="n"/>
+      <c r="J21" s="25" t="n"/>
+      <c r="K21" s="25" t="n"/>
+      <c r="L21" s="25" t="n"/>
+      <c r="M21" s="26" t="n"/>
+      <c r="O21" s="34" t="inlineStr">
+        <is>
+          <t>役職手当</t>
+        </is>
+      </c>
+      <c r="P21" s="30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B22" s="11" t="n">
+        <v>45127</v>
+      </c>
+      <c r="C22" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D22" s="53" t="n"/>
+      <c r="E22" s="54" t="n"/>
+      <c r="F22" s="52">
+        <f>E22-D22</f>
+        <v/>
+      </c>
+      <c r="G22" s="23" t="n"/>
+      <c r="H22" s="24" t="n"/>
+      <c r="I22" s="25" t="n"/>
+      <c r="J22" s="25" t="n"/>
+      <c r="K22" s="25" t="n"/>
+      <c r="L22" s="25" t="n"/>
+      <c r="M22" s="26" t="n"/>
+    </row>
+    <row r="23" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B23" s="11" t="n">
+        <v>45128</v>
+      </c>
+      <c r="C23" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D23" s="53" t="n"/>
+      <c r="E23" s="54" t="n"/>
+      <c r="F23" s="52">
+        <f>E23-D23</f>
+        <v/>
+      </c>
+      <c r="G23" s="23" t="n"/>
+      <c r="H23" s="24" t="n"/>
+      <c r="I23" s="25" t="n"/>
+      <c r="J23" s="25" t="n"/>
+      <c r="K23" s="25" t="n"/>
+      <c r="L23" s="25" t="n"/>
+      <c r="M23" s="26" t="n"/>
+      <c r="O23" s="20" t="inlineStr">
+        <is>
+          <t>控除</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B24" s="11" t="n">
+        <v>45129</v>
+      </c>
+      <c r="C24" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D24" s="53" t="n"/>
+      <c r="E24" s="54" t="n"/>
+      <c r="F24" s="52">
+        <f>E24-D24</f>
+        <v/>
+      </c>
+      <c r="G24" s="23" t="n"/>
+      <c r="H24" s="24" t="n"/>
+      <c r="I24" s="25" t="n"/>
+      <c r="J24" s="25" t="n"/>
+      <c r="K24" s="25" t="n"/>
+      <c r="L24" s="25" t="n"/>
+      <c r="M24" s="26" t="n"/>
+      <c r="O24" s="31" t="inlineStr">
+        <is>
+          <t>源泉徴収</t>
+        </is>
+      </c>
+      <c r="P24" s="35">
+        <f>P29*10.21%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B25" s="11" t="n">
+        <v>45130</v>
+      </c>
+      <c r="C25" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D25" s="53" t="n"/>
+      <c r="E25" s="54" t="n"/>
+      <c r="F25" s="52">
+        <f>E25-D25</f>
+        <v/>
+      </c>
+      <c r="G25" s="23" t="n"/>
+      <c r="H25" s="24" t="n"/>
+      <c r="I25" s="25" t="n"/>
+      <c r="J25" s="25" t="n"/>
+      <c r="K25" s="25" t="n"/>
+      <c r="L25" s="25" t="n"/>
+      <c r="M25" s="26" t="n"/>
+      <c r="O25" s="32" t="inlineStr">
+        <is>
+          <t>交通費</t>
+        </is>
+      </c>
+      <c r="P25" s="33">
+        <f>L34*500</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B26" s="11" t="n">
+        <v>45131</v>
+      </c>
+      <c r="C26" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D26" s="53" t="n"/>
+      <c r="E26" s="54" t="n"/>
+      <c r="F26" s="52">
+        <f>E26-D26</f>
+        <v/>
+      </c>
+      <c r="G26" s="23" t="n"/>
+      <c r="H26" s="24" t="n"/>
+      <c r="I26" s="25" t="n"/>
+      <c r="J26" s="25" t="n"/>
+      <c r="K26" s="25" t="n"/>
+      <c r="L26" s="25" t="n"/>
+      <c r="M26" s="26" t="n"/>
+      <c r="O26" s="34" t="inlineStr">
+        <is>
+          <t>前借</t>
+        </is>
+      </c>
+      <c r="P26" s="30">
+        <f>M34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B27" s="11" t="n">
+        <v>45132</v>
+      </c>
+      <c r="C27" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D27" s="53" t="n"/>
+      <c r="E27" s="54" t="n"/>
+      <c r="F27" s="52">
+        <f>E27-D27</f>
+        <v/>
+      </c>
+      <c r="G27" s="23" t="n"/>
+      <c r="H27" s="24" t="n"/>
+      <c r="I27" s="25" t="n"/>
+      <c r="J27" s="25" t="n"/>
+      <c r="K27" s="25" t="n"/>
+      <c r="L27" s="25" t="n"/>
+      <c r="M27" s="26" t="n"/>
+    </row>
+    <row r="28" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B28" s="11" t="n">
+        <v>45133</v>
+      </c>
+      <c r="C28" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D28" s="53" t="n"/>
+      <c r="E28" s="54" t="n"/>
+      <c r="F28" s="52">
+        <f>E28-D28</f>
+        <v/>
+      </c>
+      <c r="G28" s="23" t="n"/>
+      <c r="H28" s="24" t="n"/>
+      <c r="I28" s="25" t="n"/>
+      <c r="J28" s="25" t="n"/>
+      <c r="K28" s="25" t="n"/>
+      <c r="L28" s="25" t="n"/>
+      <c r="M28" s="26" t="n"/>
+      <c r="O28" s="20" t="inlineStr">
+        <is>
+          <t>支給額</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B29" s="11" t="n">
+        <v>45134</v>
+      </c>
+      <c r="C29" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D29" s="53" t="n"/>
+      <c r="E29" s="54" t="n"/>
+      <c r="F29" s="52">
+        <f>E29-D29</f>
+        <v/>
+      </c>
+      <c r="G29" s="23" t="n"/>
+      <c r="H29" s="24" t="n"/>
+      <c r="I29" s="25" t="n"/>
+      <c r="J29" s="25" t="n"/>
+      <c r="K29" s="25" t="n"/>
+      <c r="L29" s="25" t="n"/>
+      <c r="M29" s="26" t="n"/>
+      <c r="O29" s="31" t="inlineStr">
+        <is>
+          <t>総支給額</t>
+        </is>
+      </c>
+      <c r="P29" s="28">
+        <f>P7+P8+P17+P20+P21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B30" s="11" t="n">
+        <v>45135</v>
+      </c>
+      <c r="C30" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D30" s="53" t="n"/>
+      <c r="E30" s="54" t="n"/>
+      <c r="F30" s="52">
+        <f>E30-D30</f>
+        <v/>
+      </c>
+      <c r="G30" s="23" t="n"/>
+      <c r="H30" s="24" t="n"/>
+      <c r="I30" s="25" t="n"/>
+      <c r="J30" s="25" t="n"/>
+      <c r="K30" s="25" t="n"/>
+      <c r="L30" s="25" t="n"/>
+      <c r="M30" s="26" t="n"/>
+      <c r="O30" s="34" t="inlineStr">
+        <is>
+          <t>差引支給額</t>
+        </is>
+      </c>
+      <c r="P30" s="36">
+        <f>P29-P24-P25-P26-P8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B31" s="11" t="n">
+        <v>45136</v>
+      </c>
+      <c r="C31" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D31" s="53" t="n"/>
+      <c r="E31" s="54" t="n"/>
+      <c r="F31" s="52">
+        <f>E31-D31</f>
+        <v/>
+      </c>
+      <c r="G31" s="23" t="n"/>
+      <c r="H31" s="24" t="n"/>
+      <c r="I31" s="25" t="n"/>
+      <c r="J31" s="25" t="n"/>
+      <c r="K31" s="25" t="n"/>
+      <c r="L31" s="25" t="n"/>
+      <c r="M31" s="26" t="n"/>
+    </row>
+    <row r="32" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B32" s="11" t="n">
+        <v>45137</v>
+      </c>
+      <c r="C32" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D32" s="53" t="n"/>
+      <c r="E32" s="54" t="n"/>
+      <c r="F32" s="52">
+        <f>E32-D32</f>
+        <v/>
+      </c>
+      <c r="G32" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="25" t="n"/>
+      <c r="K32" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="25" t="n"/>
+      <c r="M32" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="20" t="inlineStr">
+        <is>
+          <t>参考値</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B33" s="48" t="n">
+        <v>45138</v>
+      </c>
+      <c r="C33" s="37" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D33" s="55" t="n"/>
+      <c r="E33" s="56" t="n"/>
+      <c r="F33" s="52">
+        <f>E33-D33</f>
+        <v/>
+      </c>
+      <c r="G33" s="40" t="n"/>
+      <c r="H33" s="41" t="n"/>
+      <c r="I33" s="42" t="n"/>
+      <c r="J33" s="42" t="n"/>
+      <c r="K33" s="42" t="n"/>
+      <c r="L33" s="42" t="n"/>
+      <c r="M33" s="30" t="n"/>
+      <c r="O33" s="31" t="inlineStr">
+        <is>
+          <t>月間売上</t>
+        </is>
+      </c>
+      <c r="P33" s="43">
+        <f>G34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>当月勤務時間合計</t>
+        </is>
+      </c>
+      <c r="F34" s="57">
+        <f>SUM(F3:F33)</f>
+        <v/>
+      </c>
+      <c r="G34" s="45">
+        <f>SUM(G3:G33)</f>
+        <v/>
+      </c>
+      <c r="H34" s="45">
+        <f>SUM(H3:H33)</f>
+        <v/>
+      </c>
+      <c r="I34" s="45">
+        <f>SUM(I3:I33)</f>
+        <v/>
+      </c>
+      <c r="J34" s="45">
+        <f>SUM(J3:J33)</f>
+        <v/>
+      </c>
+      <c r="K34" s="45">
+        <f>SUM(K3:K33)</f>
+        <v/>
+      </c>
+      <c r="L34" s="45">
+        <f>SUM(L3:L33)</f>
+        <v/>
+      </c>
+      <c r="M34" s="46">
+        <f>SUM(M3:M33)</f>
+        <v/>
+      </c>
+      <c r="O34" s="34" t="inlineStr">
+        <is>
+          <t>給率</t>
+        </is>
+      </c>
+      <c r="P34" s="47">
+        <f>P29/P33</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="52" horizontalDpi="360" verticalDpi="360"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col width="8.796875" customWidth="1" style="2" min="1" max="1"/>
+    <col width="8.796875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="5.69921875" customWidth="1" style="3" min="3" max="3"/>
+    <col width="9" customWidth="1" style="2" min="4" max="4"/>
+    <col width="8.796875" customWidth="1" style="2" min="5" max="6"/>
+    <col width="10.8984375" customWidth="1" style="2" min="7" max="7"/>
+    <col width="10.09765625" customWidth="1" style="2" min="8" max="9"/>
+    <col width="10.59765625" customWidth="1" style="2" min="10" max="10"/>
+    <col width="8.796875" customWidth="1" style="2" min="11" max="14"/>
+    <col width="11.8984375" customWidth="1" style="4" min="15" max="15"/>
+    <col width="12.09765625" customWidth="1" style="2" min="16" max="16"/>
+    <col width="8.796875" customWidth="1" style="2" min="17" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>出退勤シート</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>氏名</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>みりあ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.6" customFormat="1" customHeight="1" s="3" thickBot="1">
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>出勤</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>退勤</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>勤務時間</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>売上</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>ドリンク</t>
+        </is>
+      </c>
+      <c r="I2" s="10" t="inlineStr">
+        <is>
+          <t>シャンパン</t>
+        </is>
+      </c>
+      <c r="J2" s="10" t="inlineStr">
+        <is>
+          <t>遅刻・当欠</t>
+        </is>
+      </c>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>バック</t>
+        </is>
+      </c>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>送り</t>
+        </is>
+      </c>
+      <c r="M2" s="6" t="inlineStr">
+        <is>
+          <t>前借</t>
+        </is>
+      </c>
+      <c r="O2" s="4" t="n"/>
+    </row>
+    <row r="3" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B3" s="11" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D3" s="50" t="n"/>
+      <c r="E3" s="51" t="n"/>
+      <c r="F3" s="52">
+        <f>E3-D3</f>
+        <v/>
+      </c>
+      <c r="G3" s="16" t="n"/>
+      <c r="H3" s="17" t="n"/>
+      <c r="I3" s="18" t="n"/>
+      <c r="J3" s="18" t="n"/>
+      <c r="K3" s="18" t="n"/>
+      <c r="L3" s="18" t="n"/>
+      <c r="M3" s="19" t="n"/>
+      <c r="O3" s="20" t="inlineStr">
+        <is>
+          <t>給与</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B4" s="11" t="n">
+        <v>45109</v>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D4" s="53" t="n"/>
+      <c r="E4" s="54" t="n"/>
+      <c r="F4" s="52">
+        <f>E4-D4</f>
+        <v/>
+      </c>
+      <c r="G4" s="23" t="n"/>
+      <c r="H4" s="24" t="n"/>
+      <c r="I4" s="25" t="n"/>
+      <c r="J4" s="25" t="n"/>
+      <c r="K4" s="25" t="n"/>
+      <c r="L4" s="25" t="n"/>
+      <c r="M4" s="26" t="n"/>
+      <c r="O4" s="27" t="inlineStr">
+        <is>
+          <t>出勤日数</t>
+        </is>
+      </c>
+      <c r="P4" s="28">
+        <f>COUNTA(E3:E33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B5" s="11" t="n">
+        <v>45110</v>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D5" s="53" t="n"/>
+      <c r="E5" s="54" t="n"/>
+      <c r="F5" s="52">
+        <f>E5-D5</f>
+        <v/>
+      </c>
+      <c r="G5" s="23" t="n"/>
+      <c r="H5" s="24" t="n"/>
+      <c r="I5" s="25" t="n"/>
+      <c r="J5" s="25" t="n"/>
+      <c r="K5" s="25" t="n"/>
+      <c r="L5" s="25" t="n"/>
+      <c r="M5" s="26" t="n"/>
+      <c r="O5" s="29" t="inlineStr">
+        <is>
+          <t>時給</t>
+        </is>
+      </c>
+      <c r="P5" s="30" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B6" s="11" t="n">
+        <v>45111</v>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D6" s="53" t="n"/>
+      <c r="E6" s="54" t="n"/>
+      <c r="F6" s="52">
+        <f>E6-D6</f>
+        <v/>
+      </c>
+      <c r="G6" s="23" t="n"/>
+      <c r="H6" s="24" t="n"/>
+      <c r="I6" s="25" t="n"/>
+      <c r="J6" s="25" t="n"/>
+      <c r="K6" s="25" t="n"/>
+      <c r="L6" s="25" t="n"/>
+      <c r="M6" s="26" t="n"/>
+    </row>
+    <row r="7" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B7" s="11" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D7" s="53" t="n"/>
+      <c r="E7" s="54" t="n"/>
+      <c r="F7" s="52">
+        <f>E7-D7</f>
+        <v/>
+      </c>
+      <c r="G7" s="23" t="n"/>
+      <c r="H7" s="24" t="n"/>
+      <c r="I7" s="25" t="n"/>
+      <c r="J7" s="25" t="n"/>
+      <c r="K7" s="25" t="n"/>
+      <c r="L7" s="25" t="n"/>
+      <c r="M7" s="26" t="n"/>
+      <c r="O7" s="27" t="inlineStr">
+        <is>
+          <t>基本給</t>
+        </is>
+      </c>
+      <c r="P7" s="28">
+        <f>P5*F34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B8" s="11" t="n">
+        <v>45113</v>
+      </c>
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D8" s="53" t="n"/>
+      <c r="E8" s="54" t="n"/>
+      <c r="F8" s="52">
+        <f>E8-D8</f>
+        <v/>
+      </c>
+      <c r="G8" s="23" t="n"/>
+      <c r="H8" s="24" t="n"/>
+      <c r="I8" s="25" t="n"/>
+      <c r="J8" s="25" t="n"/>
+      <c r="K8" s="25" t="n"/>
+      <c r="L8" s="25" t="n"/>
+      <c r="M8" s="26" t="n"/>
+      <c r="O8" s="29" t="inlineStr">
+        <is>
+          <t>バック</t>
+        </is>
+      </c>
+      <c r="P8" s="30">
+        <f>K34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B9" s="11" t="n">
+        <v>45114</v>
+      </c>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D9" s="53" t="n"/>
+      <c r="E9" s="54" t="n"/>
+      <c r="F9" s="52">
+        <f>E9-D9</f>
+        <v/>
+      </c>
+      <c r="G9" s="23" t="n"/>
+      <c r="H9" s="24" t="n"/>
+      <c r="I9" s="25" t="n"/>
+      <c r="J9" s="25" t="n"/>
+      <c r="K9" s="25" t="n"/>
+      <c r="L9" s="25" t="n"/>
+      <c r="M9" s="26" t="n"/>
+    </row>
+    <row r="10" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B10" s="11" t="n">
+        <v>45115</v>
+      </c>
+      <c r="C10" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D10" s="53" t="n"/>
+      <c r="E10" s="54" t="n"/>
+      <c r="F10" s="52">
+        <f>E10-D10</f>
+        <v/>
+      </c>
+      <c r="G10" s="23" t="n"/>
+      <c r="H10" s="24" t="n"/>
+      <c r="I10" s="25" t="n"/>
+      <c r="J10" s="25" t="n"/>
+      <c r="K10" s="25" t="n"/>
+      <c r="L10" s="25" t="n"/>
+      <c r="M10" s="26" t="n"/>
+      <c r="O10" s="20" t="inlineStr">
+        <is>
+          <t>賞与</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B11" s="11" t="n">
+        <v>45116</v>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D11" s="53" t="n"/>
+      <c r="E11" s="54" t="n"/>
+      <c r="F11" s="52">
+        <f>E11-D11</f>
+        <v/>
+      </c>
+      <c r="G11" s="23" t="n"/>
+      <c r="H11" s="24" t="n"/>
+      <c r="I11" s="25" t="n"/>
+      <c r="J11" s="25" t="n"/>
+      <c r="K11" s="25" t="n"/>
+      <c r="L11" s="25" t="n"/>
+      <c r="M11" s="26" t="n"/>
+      <c r="O11" s="31" t="inlineStr">
+        <is>
+          <t>チームバック</t>
+        </is>
+      </c>
+      <c r="P11" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B12" s="11" t="n">
+        <v>45117</v>
+      </c>
+      <c r="C12" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D12" s="53" t="n"/>
+      <c r="E12" s="54" t="n"/>
+      <c r="F12" s="52">
+        <f>E12-D12</f>
+        <v/>
+      </c>
+      <c r="G12" s="23" t="n"/>
+      <c r="H12" s="24" t="n"/>
+      <c r="I12" s="25" t="n"/>
+      <c r="J12" s="25" t="n"/>
+      <c r="K12" s="25" t="n"/>
+      <c r="L12" s="25" t="n"/>
+      <c r="M12" s="26" t="n"/>
+      <c r="O12" s="32" t="inlineStr">
+        <is>
+          <t>売上1位</t>
+        </is>
+      </c>
+      <c r="P12" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B13" s="11" t="n">
+        <v>45118</v>
+      </c>
+      <c r="C13" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D13" s="53" t="n"/>
+      <c r="E13" s="54" t="n"/>
+      <c r="F13" s="52">
+        <f>E13-D13</f>
+        <v/>
+      </c>
+      <c r="G13" s="23" t="n"/>
+      <c r="H13" s="24" t="n"/>
+      <c r="I13" s="25" t="n"/>
+      <c r="J13" s="25" t="n"/>
+      <c r="K13" s="25" t="n"/>
+      <c r="L13" s="25" t="n"/>
+      <c r="M13" s="26" t="n"/>
+      <c r="O13" s="32" t="inlineStr">
+        <is>
+          <t>月間指名1位</t>
+        </is>
+      </c>
+      <c r="P13" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B14" s="11" t="n">
+        <v>45119</v>
+      </c>
+      <c r="C14" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D14" s="53" t="n"/>
+      <c r="E14" s="54" t="n"/>
+      <c r="F14" s="52">
+        <f>E14-D14</f>
+        <v/>
+      </c>
+      <c r="G14" s="23" t="n"/>
+      <c r="H14" s="24" t="n"/>
+      <c r="I14" s="25" t="n"/>
+      <c r="J14" s="25" t="n"/>
+      <c r="K14" s="25" t="n"/>
+      <c r="L14" s="25" t="n"/>
+      <c r="M14" s="26" t="n"/>
+      <c r="O14" s="32" t="inlineStr">
+        <is>
+          <t>月間同伴1位</t>
+        </is>
+      </c>
+      <c r="P14" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B15" s="11" t="n">
+        <v>45120</v>
+      </c>
+      <c r="C15" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D15" s="53" t="n"/>
+      <c r="E15" s="54" t="n"/>
+      <c r="F15" s="52">
+        <f>E15-D15</f>
+        <v/>
+      </c>
+      <c r="G15" s="23" t="n"/>
+      <c r="H15" s="24" t="n"/>
+      <c r="I15" s="25" t="n"/>
+      <c r="J15" s="25" t="n"/>
+      <c r="K15" s="25" t="n"/>
+      <c r="L15" s="25" t="n"/>
+      <c r="M15" s="26" t="n"/>
+      <c r="O15" s="32" t="inlineStr">
+        <is>
+          <t>シャンパン</t>
+        </is>
+      </c>
+      <c r="P15" s="33">
+        <f>I34*10%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B16" s="11" t="n">
+        <v>45121</v>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D16" s="53" t="n"/>
+      <c r="E16" s="54" t="n"/>
+      <c r="F16" s="52">
+        <f>E16-D16</f>
+        <v/>
+      </c>
+      <c r="G16" s="23" t="n"/>
+      <c r="H16" s="24" t="n"/>
+      <c r="I16" s="25" t="n"/>
+      <c r="J16" s="25" t="n"/>
+      <c r="K16" s="25" t="n"/>
+      <c r="L16" s="25" t="n"/>
+      <c r="M16" s="26" t="n"/>
+      <c r="O16" s="34" t="inlineStr">
+        <is>
+          <t>ドリンク</t>
+        </is>
+      </c>
+      <c r="P16" s="30">
+        <f>H34*200</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B17" s="11" t="n">
+        <v>45122</v>
+      </c>
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D17" s="53" t="n"/>
+      <c r="E17" s="54" t="n"/>
+      <c r="F17" s="52">
+        <f>E17-D17</f>
+        <v/>
+      </c>
+      <c r="G17" s="23" t="n"/>
+      <c r="H17" s="24" t="n"/>
+      <c r="I17" s="25" t="n"/>
+      <c r="J17" s="25" t="n"/>
+      <c r="K17" s="25" t="n"/>
+      <c r="L17" s="25" t="n"/>
+      <c r="M17" s="26" t="n"/>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="P17" s="2">
+        <f>SUM(P11:P16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B18" s="11" t="n">
+        <v>45123</v>
+      </c>
+      <c r="C18" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D18" s="53" t="n"/>
+      <c r="E18" s="54" t="n"/>
+      <c r="F18" s="52">
+        <f>E18-D18</f>
+        <v/>
+      </c>
+      <c r="G18" s="23" t="n"/>
+      <c r="H18" s="24" t="n"/>
+      <c r="I18" s="25" t="n"/>
+      <c r="J18" s="25" t="n"/>
+      <c r="K18" s="25" t="n"/>
+      <c r="L18" s="25" t="n"/>
+      <c r="M18" s="26" t="n"/>
+    </row>
+    <row r="19" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B19" s="11" t="n">
+        <v>45124</v>
+      </c>
+      <c r="C19" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D19" s="53" t="n"/>
+      <c r="E19" s="54" t="n"/>
+      <c r="F19" s="52">
+        <f>E19-D19</f>
+        <v/>
+      </c>
+      <c r="G19" s="23" t="n"/>
+      <c r="H19" s="24" t="n"/>
+      <c r="I19" s="25" t="n"/>
+      <c r="J19" s="25" t="n"/>
+      <c r="K19" s="25" t="n"/>
+      <c r="L19" s="25" t="n"/>
+      <c r="M19" s="26" t="n"/>
+      <c r="O19" s="20" t="inlineStr">
+        <is>
+          <t>手当</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B20" s="11" t="n">
+        <v>45125</v>
+      </c>
+      <c r="C20" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D20" s="53" t="n"/>
+      <c r="E20" s="54" t="n"/>
+      <c r="F20" s="52">
+        <f>E20-D20</f>
+        <v/>
+      </c>
+      <c r="G20" s="23" t="n"/>
+      <c r="H20" s="24" t="n"/>
+      <c r="I20" s="25" t="n"/>
+      <c r="J20" s="25" t="n"/>
+      <c r="K20" s="25" t="n"/>
+      <c r="L20" s="25" t="n"/>
+      <c r="M20" s="26" t="n"/>
+      <c r="O20" s="31" t="inlineStr">
+        <is>
+          <t>シフト手当</t>
+        </is>
+      </c>
+      <c r="P20" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B21" s="11" t="n">
+        <v>45126</v>
+      </c>
+      <c r="C21" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D21" s="53" t="n"/>
+      <c r="E21" s="54" t="n"/>
+      <c r="F21" s="52">
+        <f>E21-D21</f>
+        <v/>
+      </c>
+      <c r="G21" s="23" t="n"/>
+      <c r="H21" s="24" t="n"/>
+      <c r="I21" s="25" t="n"/>
+      <c r="J21" s="25" t="n"/>
+      <c r="K21" s="25" t="n"/>
+      <c r="L21" s="25" t="n"/>
+      <c r="M21" s="26" t="n"/>
+      <c r="O21" s="34" t="inlineStr">
+        <is>
+          <t>役職手当</t>
+        </is>
+      </c>
+      <c r="P21" s="30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B22" s="11" t="n">
+        <v>45127</v>
+      </c>
+      <c r="C22" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D22" s="53" t="n"/>
+      <c r="E22" s="54" t="n"/>
+      <c r="F22" s="52">
+        <f>E22-D22</f>
+        <v/>
+      </c>
+      <c r="G22" s="23" t="n"/>
+      <c r="H22" s="24" t="n"/>
+      <c r="I22" s="25" t="n"/>
+      <c r="J22" s="25" t="n"/>
+      <c r="K22" s="25" t="n"/>
+      <c r="L22" s="25" t="n"/>
+      <c r="M22" s="26" t="n"/>
+    </row>
+    <row r="23" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B23" s="11" t="n">
+        <v>45128</v>
+      </c>
+      <c r="C23" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D23" s="53" t="n"/>
+      <c r="E23" s="54" t="n"/>
+      <c r="F23" s="52">
+        <f>E23-D23</f>
+        <v/>
+      </c>
+      <c r="G23" s="23" t="n"/>
+      <c r="H23" s="24" t="n"/>
+      <c r="I23" s="25" t="n"/>
+      <c r="J23" s="25" t="n"/>
+      <c r="K23" s="25" t="n"/>
+      <c r="L23" s="25" t="n"/>
+      <c r="M23" s="26" t="n"/>
+      <c r="O23" s="20" t="inlineStr">
+        <is>
+          <t>控除</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B24" s="11" t="n">
+        <v>45129</v>
+      </c>
+      <c r="C24" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D24" s="53" t="n"/>
+      <c r="E24" s="54" t="n"/>
+      <c r="F24" s="52">
+        <f>E24-D24</f>
+        <v/>
+      </c>
+      <c r="G24" s="23" t="n"/>
+      <c r="H24" s="24" t="n"/>
+      <c r="I24" s="25" t="n"/>
+      <c r="J24" s="25" t="n"/>
+      <c r="K24" s="25" t="n"/>
+      <c r="L24" s="25" t="n"/>
+      <c r="M24" s="26" t="n"/>
+      <c r="O24" s="31" t="inlineStr">
+        <is>
+          <t>源泉徴収</t>
+        </is>
+      </c>
+      <c r="P24" s="35">
+        <f>P29*10.21%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B25" s="11" t="n">
+        <v>45130</v>
+      </c>
+      <c r="C25" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D25" s="53" t="n"/>
+      <c r="E25" s="54" t="n"/>
+      <c r="F25" s="52">
+        <f>E25-D25</f>
+        <v/>
+      </c>
+      <c r="G25" s="23" t="n"/>
+      <c r="H25" s="24" t="n"/>
+      <c r="I25" s="25" t="n"/>
+      <c r="J25" s="25" t="n"/>
+      <c r="K25" s="25" t="n"/>
+      <c r="L25" s="25" t="n"/>
+      <c r="M25" s="26" t="n"/>
+      <c r="O25" s="32" t="inlineStr">
+        <is>
+          <t>交通費</t>
+        </is>
+      </c>
+      <c r="P25" s="33">
+        <f>L34*500</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B26" s="11" t="n">
+        <v>45131</v>
+      </c>
+      <c r="C26" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D26" s="53" t="n"/>
+      <c r="E26" s="54" t="n"/>
+      <c r="F26" s="52">
+        <f>E26-D26</f>
+        <v/>
+      </c>
+      <c r="G26" s="23" t="n"/>
+      <c r="H26" s="24" t="n"/>
+      <c r="I26" s="25" t="n"/>
+      <c r="J26" s="25" t="n"/>
+      <c r="K26" s="25" t="n"/>
+      <c r="L26" s="25" t="n"/>
+      <c r="M26" s="26" t="n"/>
+      <c r="O26" s="34" t="inlineStr">
+        <is>
+          <t>前借</t>
+        </is>
+      </c>
+      <c r="P26" s="30">
+        <f>M34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B27" s="11" t="n">
+        <v>45132</v>
+      </c>
+      <c r="C27" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D27" s="53" t="n"/>
+      <c r="E27" s="54" t="n"/>
+      <c r="F27" s="52">
+        <f>E27-D27</f>
+        <v/>
+      </c>
+      <c r="G27" s="23" t="n"/>
+      <c r="H27" s="24" t="n"/>
+      <c r="I27" s="25" t="n"/>
+      <c r="J27" s="25" t="n"/>
+      <c r="K27" s="25" t="n"/>
+      <c r="L27" s="25" t="n"/>
+      <c r="M27" s="26" t="n"/>
+    </row>
+    <row r="28" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B28" s="11" t="n">
+        <v>45133</v>
+      </c>
+      <c r="C28" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D28" s="53" t="n"/>
+      <c r="E28" s="54" t="n"/>
+      <c r="F28" s="52">
+        <f>E28-D28</f>
+        <v/>
+      </c>
+      <c r="G28" s="23" t="n"/>
+      <c r="H28" s="24" t="n"/>
+      <c r="I28" s="25" t="n"/>
+      <c r="J28" s="25" t="n"/>
+      <c r="K28" s="25" t="n"/>
+      <c r="L28" s="25" t="n"/>
+      <c r="M28" s="26" t="n"/>
+      <c r="O28" s="20" t="inlineStr">
+        <is>
+          <t>支給額</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B29" s="11" t="n">
+        <v>45134</v>
+      </c>
+      <c r="C29" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D29" s="53" t="n"/>
+      <c r="E29" s="54" t="n"/>
+      <c r="F29" s="52">
+        <f>E29-D29</f>
+        <v/>
+      </c>
+      <c r="G29" s="23" t="n"/>
+      <c r="H29" s="24" t="n"/>
+      <c r="I29" s="25" t="n"/>
+      <c r="J29" s="25" t="n"/>
+      <c r="K29" s="25" t="n"/>
+      <c r="L29" s="25" t="n"/>
+      <c r="M29" s="26" t="n"/>
+      <c r="O29" s="31" t="inlineStr">
+        <is>
+          <t>総支給額</t>
+        </is>
+      </c>
+      <c r="P29" s="28">
+        <f>P7+P8+P17+P20+P21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B30" s="11" t="n">
+        <v>45135</v>
+      </c>
+      <c r="C30" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D30" s="53" t="n"/>
+      <c r="E30" s="54" t="n"/>
+      <c r="F30" s="52">
+        <f>E30-D30</f>
+        <v/>
+      </c>
+      <c r="G30" s="23" t="n"/>
+      <c r="H30" s="24" t="n"/>
+      <c r="I30" s="25" t="n"/>
+      <c r="J30" s="25" t="n"/>
+      <c r="K30" s="25" t="n"/>
+      <c r="L30" s="25" t="n"/>
+      <c r="M30" s="26" t="n"/>
+      <c r="O30" s="34" t="inlineStr">
+        <is>
+          <t>差引支給額</t>
+        </is>
+      </c>
+      <c r="P30" s="36">
+        <f>P29-P24-P25-P26-P8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B31" s="11" t="n">
+        <v>45136</v>
+      </c>
+      <c r="C31" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D31" s="53" t="n"/>
+      <c r="E31" s="54" t="n"/>
+      <c r="F31" s="52">
+        <f>E31-D31</f>
+        <v/>
+      </c>
+      <c r="G31" s="23" t="n"/>
+      <c r="H31" s="24" t="n"/>
+      <c r="I31" s="25" t="n"/>
+      <c r="J31" s="25" t="n"/>
+      <c r="K31" s="25" t="n"/>
+      <c r="L31" s="25" t="n"/>
+      <c r="M31" s="26" t="n"/>
+    </row>
+    <row r="32" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B32" s="11" t="n">
+        <v>45137</v>
+      </c>
+      <c r="C32" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D32" s="53" t="n"/>
+      <c r="E32" s="54" t="n"/>
+      <c r="F32" s="52">
+        <f>E32-D32</f>
+        <v/>
+      </c>
+      <c r="G32" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="25" t="n"/>
+      <c r="K32" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="25" t="n"/>
+      <c r="M32" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="20" t="inlineStr">
+        <is>
+          <t>参考値</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B33" s="48" t="n">
+        <v>45138</v>
+      </c>
+      <c r="C33" s="37" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D33" s="55" t="n"/>
+      <c r="E33" s="56" t="n"/>
+      <c r="F33" s="52">
+        <f>E33-D33</f>
+        <v/>
+      </c>
+      <c r="G33" s="40" t="n"/>
+      <c r="H33" s="41" t="n"/>
+      <c r="I33" s="42" t="n"/>
+      <c r="J33" s="42" t="n"/>
+      <c r="K33" s="42" t="n"/>
+      <c r="L33" s="42" t="n"/>
+      <c r="M33" s="30" t="n"/>
+      <c r="O33" s="31" t="inlineStr">
+        <is>
+          <t>月間売上</t>
+        </is>
+      </c>
+      <c r="P33" s="43">
+        <f>G34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>当月勤務時間合計</t>
+        </is>
+      </c>
+      <c r="F34" s="57">
+        <f>SUM(F3:F33)</f>
+        <v/>
+      </c>
+      <c r="G34" s="45">
+        <f>SUM(G3:G33)</f>
+        <v/>
+      </c>
+      <c r="H34" s="45">
+        <f>SUM(H3:H33)</f>
+        <v/>
+      </c>
+      <c r="I34" s="45">
+        <f>SUM(I3:I33)</f>
+        <v/>
+      </c>
+      <c r="J34" s="45">
+        <f>SUM(J3:J33)</f>
+        <v/>
+      </c>
+      <c r="K34" s="45">
+        <f>SUM(K3:K33)</f>
+        <v/>
+      </c>
+      <c r="L34" s="45">
+        <f>SUM(L3:L33)</f>
+        <v/>
+      </c>
+      <c r="M34" s="46">
+        <f>SUM(M3:M33)</f>
+        <v/>
+      </c>
+      <c r="O34" s="34" t="inlineStr">
+        <is>
+          <t>給率</t>
+        </is>
+      </c>
+      <c r="P34" s="47">
+        <f>P29/P33</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="52" horizontalDpi="360" verticalDpi="360"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col width="8.796875" customWidth="1" style="2" min="1" max="1"/>
+    <col width="8.796875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="5.69921875" customWidth="1" style="3" min="3" max="3"/>
+    <col width="9" customWidth="1" style="2" min="4" max="4"/>
+    <col width="8.796875" customWidth="1" style="2" min="5" max="6"/>
+    <col width="10.8984375" customWidth="1" style="2" min="7" max="7"/>
+    <col width="10.09765625" customWidth="1" style="2" min="8" max="9"/>
+    <col width="10.59765625" customWidth="1" style="2" min="10" max="10"/>
+    <col width="8.796875" customWidth="1" style="2" min="11" max="14"/>
+    <col width="11.8984375" customWidth="1" style="4" min="15" max="15"/>
+    <col width="12.09765625" customWidth="1" style="2" min="16" max="16"/>
+    <col width="8.796875" customWidth="1" style="2" min="17" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>出退勤シート</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>氏名</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>こまち</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.6" customFormat="1" customHeight="1" s="3" thickBot="1">
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>出勤</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>退勤</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>勤務時間</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>売上</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>ドリンク</t>
+        </is>
+      </c>
+      <c r="I2" s="10" t="inlineStr">
+        <is>
+          <t>シャンパン</t>
+        </is>
+      </c>
+      <c r="J2" s="10" t="inlineStr">
+        <is>
+          <t>遅刻・当欠</t>
+        </is>
+      </c>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>バック</t>
+        </is>
+      </c>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>送り</t>
+        </is>
+      </c>
+      <c r="M2" s="6" t="inlineStr">
+        <is>
+          <t>前借</t>
+        </is>
+      </c>
+      <c r="O2" s="4" t="n"/>
+    </row>
+    <row r="3" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B3" s="11" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D3" s="50" t="n"/>
+      <c r="E3" s="51" t="n"/>
+      <c r="F3" s="52">
+        <f>E3-D3</f>
+        <v/>
+      </c>
+      <c r="G3" s="16" t="n"/>
+      <c r="H3" s="17" t="n"/>
+      <c r="I3" s="18" t="n"/>
+      <c r="J3" s="18" t="n"/>
+      <c r="K3" s="18" t="n"/>
+      <c r="L3" s="18" t="n"/>
+      <c r="M3" s="19" t="n"/>
+      <c r="O3" s="20" t="inlineStr">
+        <is>
+          <t>給与</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B4" s="11" t="n">
+        <v>45109</v>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D4" s="53" t="n"/>
+      <c r="E4" s="54" t="n"/>
+      <c r="F4" s="52">
+        <f>E4-D4</f>
+        <v/>
+      </c>
+      <c r="G4" s="23" t="n"/>
+      <c r="H4" s="24" t="n"/>
+      <c r="I4" s="25" t="n"/>
+      <c r="J4" s="25" t="n"/>
+      <c r="K4" s="25" t="n"/>
+      <c r="L4" s="25" t="n"/>
+      <c r="M4" s="26" t="n"/>
+      <c r="O4" s="27" t="inlineStr">
+        <is>
+          <t>出勤日数</t>
+        </is>
+      </c>
+      <c r="P4" s="28">
+        <f>COUNTA(E3:E33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B5" s="11" t="n">
+        <v>45110</v>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D5" s="53" t="n"/>
+      <c r="E5" s="54" t="n"/>
+      <c r="F5" s="52">
+        <f>E5-D5</f>
+        <v/>
+      </c>
+      <c r="G5" s="23" t="n"/>
+      <c r="H5" s="24" t="n"/>
+      <c r="I5" s="25" t="n"/>
+      <c r="J5" s="25" t="n"/>
+      <c r="K5" s="25" t="n"/>
+      <c r="L5" s="25" t="n"/>
+      <c r="M5" s="26" t="n"/>
+      <c r="O5" s="29" t="inlineStr">
+        <is>
+          <t>時給</t>
+        </is>
+      </c>
+      <c r="P5" s="30" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B6" s="11" t="n">
+        <v>45111</v>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D6" s="53" t="n"/>
+      <c r="E6" s="54" t="n"/>
+      <c r="F6" s="52">
+        <f>E6-D6</f>
+        <v/>
+      </c>
+      <c r="G6" s="23" t="n"/>
+      <c r="H6" s="24" t="n"/>
+      <c r="I6" s="25" t="n"/>
+      <c r="J6" s="25" t="n"/>
+      <c r="K6" s="25" t="n"/>
+      <c r="L6" s="25" t="n"/>
+      <c r="M6" s="26" t="n"/>
+    </row>
+    <row r="7" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B7" s="11" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D7" s="53" t="n"/>
+      <c r="E7" s="54" t="n"/>
+      <c r="F7" s="52">
+        <f>E7-D7</f>
+        <v/>
+      </c>
+      <c r="G7" s="23" t="n"/>
+      <c r="H7" s="24" t="n"/>
+      <c r="I7" s="25" t="n"/>
+      <c r="J7" s="25" t="n"/>
+      <c r="K7" s="25" t="n"/>
+      <c r="L7" s="25" t="n"/>
+      <c r="M7" s="26" t="n"/>
+      <c r="O7" s="27" t="inlineStr">
+        <is>
+          <t>基本給</t>
+        </is>
+      </c>
+      <c r="P7" s="28">
+        <f>P5*F34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B8" s="11" t="n">
+        <v>45113</v>
+      </c>
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D8" s="53" t="n"/>
+      <c r="E8" s="54" t="n"/>
+      <c r="F8" s="52">
+        <f>E8-D8</f>
+        <v/>
+      </c>
+      <c r="G8" s="23" t="n"/>
+      <c r="H8" s="24" t="n"/>
+      <c r="I8" s="25" t="n"/>
+      <c r="J8" s="25" t="n"/>
+      <c r="K8" s="25" t="n"/>
+      <c r="L8" s="25" t="n"/>
+      <c r="M8" s="26" t="n"/>
+      <c r="O8" s="29" t="inlineStr">
+        <is>
+          <t>バック</t>
+        </is>
+      </c>
+      <c r="P8" s="30">
+        <f>K34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B9" s="11" t="n">
+        <v>45114</v>
+      </c>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D9" s="53" t="n"/>
+      <c r="E9" s="54" t="n"/>
+      <c r="F9" s="52">
+        <f>E9-D9</f>
+        <v/>
+      </c>
+      <c r="G9" s="23" t="n"/>
+      <c r="H9" s="24" t="n"/>
+      <c r="I9" s="25" t="n"/>
+      <c r="J9" s="25" t="n"/>
+      <c r="K9" s="25" t="n"/>
+      <c r="L9" s="25" t="n"/>
+      <c r="M9" s="26" t="n"/>
+    </row>
+    <row r="10" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B10" s="11" t="n">
+        <v>45115</v>
+      </c>
+      <c r="C10" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D10" s="53" t="n"/>
+      <c r="E10" s="54" t="n"/>
+      <c r="F10" s="52">
+        <f>E10-D10</f>
+        <v/>
+      </c>
+      <c r="G10" s="23" t="n"/>
+      <c r="H10" s="24" t="n"/>
+      <c r="I10" s="25" t="n"/>
+      <c r="J10" s="25" t="n"/>
+      <c r="K10" s="25" t="n"/>
+      <c r="L10" s="25" t="n"/>
+      <c r="M10" s="26" t="n"/>
+      <c r="O10" s="20" t="inlineStr">
+        <is>
+          <t>賞与</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B11" s="11" t="n">
+        <v>45116</v>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D11" s="53" t="n"/>
+      <c r="E11" s="54" t="n"/>
+      <c r="F11" s="52">
+        <f>E11-D11</f>
+        <v/>
+      </c>
+      <c r="G11" s="23" t="n"/>
+      <c r="H11" s="24" t="n"/>
+      <c r="I11" s="25" t="n"/>
+      <c r="J11" s="25" t="n"/>
+      <c r="K11" s="25" t="n"/>
+      <c r="L11" s="25" t="n"/>
+      <c r="M11" s="26" t="n"/>
+      <c r="O11" s="31" t="inlineStr">
+        <is>
+          <t>チームバック</t>
+        </is>
+      </c>
+      <c r="P11" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B12" s="11" t="n">
+        <v>45117</v>
+      </c>
+      <c r="C12" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D12" s="53" t="n"/>
+      <c r="E12" s="54" t="n"/>
+      <c r="F12" s="52">
+        <f>E12-D12</f>
+        <v/>
+      </c>
+      <c r="G12" s="23" t="n"/>
+      <c r="H12" s="24" t="n"/>
+      <c r="I12" s="25" t="n"/>
+      <c r="J12" s="25" t="n"/>
+      <c r="K12" s="25" t="n"/>
+      <c r="L12" s="25" t="n"/>
+      <c r="M12" s="26" t="n"/>
+      <c r="O12" s="32" t="inlineStr">
+        <is>
+          <t>売上1位</t>
+        </is>
+      </c>
+      <c r="P12" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B13" s="11" t="n">
+        <v>45118</v>
+      </c>
+      <c r="C13" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D13" s="53" t="n"/>
+      <c r="E13" s="54" t="n"/>
+      <c r="F13" s="52">
+        <f>E13-D13</f>
+        <v/>
+      </c>
+      <c r="G13" s="23" t="n"/>
+      <c r="H13" s="24" t="n"/>
+      <c r="I13" s="25" t="n"/>
+      <c r="J13" s="25" t="n"/>
+      <c r="K13" s="25" t="n"/>
+      <c r="L13" s="25" t="n"/>
+      <c r="M13" s="26" t="n"/>
+      <c r="O13" s="32" t="inlineStr">
+        <is>
+          <t>月間指名1位</t>
+        </is>
+      </c>
+      <c r="P13" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B14" s="11" t="n">
+        <v>45119</v>
+      </c>
+      <c r="C14" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D14" s="53" t="n"/>
+      <c r="E14" s="54" t="n"/>
+      <c r="F14" s="52">
+        <f>E14-D14</f>
+        <v/>
+      </c>
+      <c r="G14" s="23" t="n"/>
+      <c r="H14" s="24" t="n"/>
+      <c r="I14" s="25" t="n"/>
+      <c r="J14" s="25" t="n"/>
+      <c r="K14" s="25" t="n"/>
+      <c r="L14" s="25" t="n"/>
+      <c r="M14" s="26" t="n"/>
+      <c r="O14" s="32" t="inlineStr">
+        <is>
+          <t>月間同伴1位</t>
+        </is>
+      </c>
+      <c r="P14" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B15" s="11" t="n">
+        <v>45120</v>
+      </c>
+      <c r="C15" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D15" s="53" t="n"/>
+      <c r="E15" s="54" t="n"/>
+      <c r="F15" s="52">
+        <f>E15-D15</f>
+        <v/>
+      </c>
+      <c r="G15" s="23" t="n"/>
+      <c r="H15" s="24" t="n"/>
+      <c r="I15" s="25" t="n"/>
+      <c r="J15" s="25" t="n"/>
+      <c r="K15" s="25" t="n"/>
+      <c r="L15" s="25" t="n"/>
+      <c r="M15" s="26" t="n"/>
+      <c r="O15" s="32" t="inlineStr">
+        <is>
+          <t>シャンパン</t>
+        </is>
+      </c>
+      <c r="P15" s="33">
+        <f>I34*10%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B16" s="11" t="n">
+        <v>45121</v>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D16" s="53" t="n"/>
+      <c r="E16" s="54" t="n"/>
+      <c r="F16" s="52">
+        <f>E16-D16</f>
+        <v/>
+      </c>
+      <c r="G16" s="23" t="n"/>
+      <c r="H16" s="24" t="n"/>
+      <c r="I16" s="25" t="n"/>
+      <c r="J16" s="25" t="n"/>
+      <c r="K16" s="25" t="n"/>
+      <c r="L16" s="25" t="n"/>
+      <c r="M16" s="26" t="n"/>
+      <c r="O16" s="34" t="inlineStr">
+        <is>
+          <t>ドリンク</t>
+        </is>
+      </c>
+      <c r="P16" s="30">
+        <f>H34*200</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B17" s="11" t="n">
+        <v>45122</v>
+      </c>
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D17" s="53" t="n"/>
+      <c r="E17" s="54" t="n"/>
+      <c r="F17" s="52">
+        <f>E17-D17</f>
+        <v/>
+      </c>
+      <c r="G17" s="23" t="n"/>
+      <c r="H17" s="24" t="n"/>
+      <c r="I17" s="25" t="n"/>
+      <c r="J17" s="25" t="n"/>
+      <c r="K17" s="25" t="n"/>
+      <c r="L17" s="25" t="n"/>
+      <c r="M17" s="26" t="n"/>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="P17" s="2">
+        <f>SUM(P11:P16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B18" s="11" t="n">
+        <v>45123</v>
+      </c>
+      <c r="C18" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D18" s="53" t="n"/>
+      <c r="E18" s="54" t="n"/>
+      <c r="F18" s="52">
+        <f>E18-D18</f>
+        <v/>
+      </c>
+      <c r="G18" s="23" t="n"/>
+      <c r="H18" s="24" t="n"/>
+      <c r="I18" s="25" t="n"/>
+      <c r="J18" s="25" t="n"/>
+      <c r="K18" s="25" t="n"/>
+      <c r="L18" s="25" t="n"/>
+      <c r="M18" s="26" t="n"/>
+    </row>
+    <row r="19" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B19" s="11" t="n">
+        <v>45124</v>
+      </c>
+      <c r="C19" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D19" s="53" t="n"/>
+      <c r="E19" s="54" t="n"/>
+      <c r="F19" s="52">
+        <f>E19-D19</f>
+        <v/>
+      </c>
+      <c r="G19" s="23" t="n"/>
+      <c r="H19" s="24" t="n"/>
+      <c r="I19" s="25" t="n"/>
+      <c r="J19" s="25" t="n"/>
+      <c r="K19" s="25" t="n"/>
+      <c r="L19" s="25" t="n"/>
+      <c r="M19" s="26" t="n"/>
+      <c r="O19" s="20" t="inlineStr">
+        <is>
+          <t>手当</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B20" s="11" t="n">
+        <v>45125</v>
+      </c>
+      <c r="C20" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D20" s="53" t="n"/>
+      <c r="E20" s="54" t="n"/>
+      <c r="F20" s="52">
+        <f>E20-D20</f>
+        <v/>
+      </c>
+      <c r="G20" s="23" t="n"/>
+      <c r="H20" s="24" t="n"/>
+      <c r="I20" s="25" t="n"/>
+      <c r="J20" s="25" t="n"/>
+      <c r="K20" s="25" t="n"/>
+      <c r="L20" s="25" t="n"/>
+      <c r="M20" s="26" t="n"/>
+      <c r="O20" s="31" t="inlineStr">
+        <is>
+          <t>シフト手当</t>
+        </is>
+      </c>
+      <c r="P20" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B21" s="11" t="n">
+        <v>45126</v>
+      </c>
+      <c r="C21" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D21" s="53" t="n"/>
+      <c r="E21" s="54" t="n"/>
+      <c r="F21" s="52">
+        <f>E21-D21</f>
+        <v/>
+      </c>
+      <c r="G21" s="23" t="n"/>
+      <c r="H21" s="24" t="n"/>
+      <c r="I21" s="25" t="n"/>
+      <c r="J21" s="25" t="n"/>
+      <c r="K21" s="25" t="n"/>
+      <c r="L21" s="25" t="n"/>
+      <c r="M21" s="26" t="n"/>
+      <c r="O21" s="34" t="inlineStr">
+        <is>
+          <t>役職手当</t>
+        </is>
+      </c>
+      <c r="P21" s="30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B22" s="11" t="n">
+        <v>45127</v>
+      </c>
+      <c r="C22" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D22" s="53" t="n"/>
+      <c r="E22" s="54" t="n"/>
+      <c r="F22" s="52">
+        <f>E22-D22</f>
+        <v/>
+      </c>
+      <c r="G22" s="23" t="n"/>
+      <c r="H22" s="24" t="n"/>
+      <c r="I22" s="25" t="n"/>
+      <c r="J22" s="25" t="n"/>
+      <c r="K22" s="25" t="n"/>
+      <c r="L22" s="25" t="n"/>
+      <c r="M22" s="26" t="n"/>
+    </row>
+    <row r="23" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B23" s="11" t="n">
+        <v>45128</v>
+      </c>
+      <c r="C23" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D23" s="53" t="n"/>
+      <c r="E23" s="54" t="n"/>
+      <c r="F23" s="52">
+        <f>E23-D23</f>
+        <v/>
+      </c>
+      <c r="G23" s="23" t="n"/>
+      <c r="H23" s="24" t="n"/>
+      <c r="I23" s="25" t="n"/>
+      <c r="J23" s="25" t="n"/>
+      <c r="K23" s="25" t="n"/>
+      <c r="L23" s="25" t="n"/>
+      <c r="M23" s="26" t="n"/>
+      <c r="O23" s="20" t="inlineStr">
+        <is>
+          <t>控除</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B24" s="11" t="n">
+        <v>45129</v>
+      </c>
+      <c r="C24" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D24" s="53" t="n"/>
+      <c r="E24" s="54" t="n"/>
+      <c r="F24" s="52">
+        <f>E24-D24</f>
+        <v/>
+      </c>
+      <c r="G24" s="23" t="n"/>
+      <c r="H24" s="24" t="n"/>
+      <c r="I24" s="25" t="n"/>
+      <c r="J24" s="25" t="n"/>
+      <c r="K24" s="25" t="n"/>
+      <c r="L24" s="25" t="n"/>
+      <c r="M24" s="26" t="n"/>
+      <c r="O24" s="31" t="inlineStr">
+        <is>
+          <t>源泉徴収</t>
+        </is>
+      </c>
+      <c r="P24" s="35">
+        <f>P29*10.21%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B25" s="11" t="n">
+        <v>45130</v>
+      </c>
+      <c r="C25" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D25" s="53" t="n"/>
+      <c r="E25" s="54" t="n"/>
+      <c r="F25" s="52">
+        <f>E25-D25</f>
+        <v/>
+      </c>
+      <c r="G25" s="23" t="n"/>
+      <c r="H25" s="24" t="n"/>
+      <c r="I25" s="25" t="n"/>
+      <c r="J25" s="25" t="n"/>
+      <c r="K25" s="25" t="n"/>
+      <c r="L25" s="25" t="n"/>
+      <c r="M25" s="26" t="n"/>
+      <c r="O25" s="32" t="inlineStr">
+        <is>
+          <t>交通費</t>
+        </is>
+      </c>
+      <c r="P25" s="33">
+        <f>L34*500</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B26" s="11" t="n">
+        <v>45131</v>
+      </c>
+      <c r="C26" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D26" s="53" t="n"/>
+      <c r="E26" s="54" t="n"/>
+      <c r="F26" s="52">
+        <f>E26-D26</f>
+        <v/>
+      </c>
+      <c r="G26" s="23" t="n"/>
+      <c r="H26" s="24" t="n"/>
+      <c r="I26" s="25" t="n"/>
+      <c r="J26" s="25" t="n"/>
+      <c r="K26" s="25" t="n"/>
+      <c r="L26" s="25" t="n"/>
+      <c r="M26" s="26" t="n"/>
+      <c r="O26" s="34" t="inlineStr">
+        <is>
+          <t>前借</t>
+        </is>
+      </c>
+      <c r="P26" s="30">
+        <f>M34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B27" s="11" t="n">
+        <v>45132</v>
+      </c>
+      <c r="C27" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D27" s="53" t="n"/>
+      <c r="E27" s="54" t="n"/>
+      <c r="F27" s="52">
+        <f>E27-D27</f>
+        <v/>
+      </c>
+      <c r="G27" s="23" t="n"/>
+      <c r="H27" s="24" t="n"/>
+      <c r="I27" s="25" t="n"/>
+      <c r="J27" s="25" t="n"/>
+      <c r="K27" s="25" t="n"/>
+      <c r="L27" s="25" t="n"/>
+      <c r="M27" s="26" t="n"/>
+    </row>
+    <row r="28" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B28" s="11" t="n">
+        <v>45133</v>
+      </c>
+      <c r="C28" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D28" s="53" t="n"/>
+      <c r="E28" s="54" t="n"/>
+      <c r="F28" s="52">
+        <f>E28-D28</f>
+        <v/>
+      </c>
+      <c r="G28" s="23" t="n"/>
+      <c r="H28" s="24" t="n"/>
+      <c r="I28" s="25" t="n"/>
+      <c r="J28" s="25" t="n"/>
+      <c r="K28" s="25" t="n"/>
+      <c r="L28" s="25" t="n"/>
+      <c r="M28" s="26" t="n"/>
+      <c r="O28" s="20" t="inlineStr">
+        <is>
+          <t>支給額</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B29" s="11" t="n">
+        <v>45134</v>
+      </c>
+      <c r="C29" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D29" s="53" t="n"/>
+      <c r="E29" s="54" t="n"/>
+      <c r="F29" s="52">
+        <f>E29-D29</f>
+        <v/>
+      </c>
+      <c r="G29" s="23" t="n"/>
+      <c r="H29" s="24" t="n"/>
+      <c r="I29" s="25" t="n"/>
+      <c r="J29" s="25" t="n"/>
+      <c r="K29" s="25" t="n"/>
+      <c r="L29" s="25" t="n"/>
+      <c r="M29" s="26" t="n"/>
+      <c r="O29" s="31" t="inlineStr">
+        <is>
+          <t>総支給額</t>
+        </is>
+      </c>
+      <c r="P29" s="28">
+        <f>P7+P8+P17+P20+P21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B30" s="11" t="n">
+        <v>45135</v>
+      </c>
+      <c r="C30" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D30" s="53" t="n"/>
+      <c r="E30" s="54" t="n"/>
+      <c r="F30" s="52">
+        <f>E30-D30</f>
+        <v/>
+      </c>
+      <c r="G30" s="23" t="n"/>
+      <c r="H30" s="24" t="n"/>
+      <c r="I30" s="25" t="n"/>
+      <c r="J30" s="25" t="n"/>
+      <c r="K30" s="25" t="n"/>
+      <c r="L30" s="25" t="n"/>
+      <c r="M30" s="26" t="n"/>
+      <c r="O30" s="34" t="inlineStr">
+        <is>
+          <t>差引支給額</t>
+        </is>
+      </c>
+      <c r="P30" s="36">
+        <f>P29-P24-P25-P26-P8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B31" s="11" t="n">
+        <v>45136</v>
+      </c>
+      <c r="C31" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D31" s="53" t="n"/>
+      <c r="E31" s="54" t="n"/>
+      <c r="F31" s="52">
+        <f>E31-D31</f>
+        <v/>
+      </c>
+      <c r="G31" s="23" t="n"/>
+      <c r="H31" s="24" t="n"/>
+      <c r="I31" s="25" t="n"/>
+      <c r="J31" s="25" t="n"/>
+      <c r="K31" s="25" t="n"/>
+      <c r="L31" s="25" t="n"/>
+      <c r="M31" s="26" t="n"/>
+    </row>
+    <row r="32" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B32" s="11" t="n">
+        <v>45137</v>
+      </c>
+      <c r="C32" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D32" s="53" t="n"/>
+      <c r="E32" s="54" t="n"/>
+      <c r="F32" s="52">
+        <f>E32-D32</f>
+        <v/>
+      </c>
+      <c r="G32" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="25" t="n"/>
+      <c r="K32" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="25" t="n"/>
+      <c r="M32" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="20" t="inlineStr">
+        <is>
+          <t>参考値</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B33" s="48" t="n">
+        <v>45138</v>
+      </c>
+      <c r="C33" s="37" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D33" s="55" t="n"/>
+      <c r="E33" s="56" t="n"/>
+      <c r="F33" s="52">
+        <f>E33-D33</f>
+        <v/>
+      </c>
+      <c r="G33" s="40" t="n"/>
+      <c r="H33" s="41" t="n"/>
+      <c r="I33" s="42" t="n"/>
+      <c r="J33" s="42" t="n"/>
+      <c r="K33" s="42" t="n"/>
+      <c r="L33" s="42" t="n"/>
+      <c r="M33" s="30" t="n"/>
+      <c r="O33" s="31" t="inlineStr">
+        <is>
+          <t>月間売上</t>
+        </is>
+      </c>
+      <c r="P33" s="43">
+        <f>G34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>当月勤務時間合計</t>
+        </is>
+      </c>
+      <c r="F34" s="57">
+        <f>SUM(F3:F33)</f>
+        <v/>
+      </c>
+      <c r="G34" s="45">
+        <f>SUM(G3:G33)</f>
+        <v/>
+      </c>
+      <c r="H34" s="45">
+        <f>SUM(H3:H33)</f>
+        <v/>
+      </c>
+      <c r="I34" s="45">
+        <f>SUM(I3:I33)</f>
+        <v/>
+      </c>
+      <c r="J34" s="45">
+        <f>SUM(J3:J33)</f>
+        <v/>
+      </c>
+      <c r="K34" s="45">
+        <f>SUM(K3:K33)</f>
+        <v/>
+      </c>
+      <c r="L34" s="45">
+        <f>SUM(L3:L33)</f>
+        <v/>
+      </c>
+      <c r="M34" s="46">
+        <f>SUM(M3:M33)</f>
+        <v/>
+      </c>
+      <c r="O34" s="34" t="inlineStr">
+        <is>
+          <t>給率</t>
+        </is>
+      </c>
+      <c r="P34" s="47">
+        <f>P29/P33</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="52" horizontalDpi="360" verticalDpi="360"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col width="8.796875" customWidth="1" style="2" min="1" max="1"/>
+    <col width="8.796875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="5.69921875" customWidth="1" style="3" min="3" max="3"/>
+    <col width="9" customWidth="1" style="2" min="4" max="4"/>
+    <col width="8.796875" customWidth="1" style="2" min="5" max="6"/>
+    <col width="10.8984375" customWidth="1" style="2" min="7" max="7"/>
+    <col width="10.09765625" customWidth="1" style="2" min="8" max="9"/>
+    <col width="10.59765625" customWidth="1" style="2" min="10" max="10"/>
+    <col width="8.796875" customWidth="1" style="2" min="11" max="14"/>
+    <col width="11.8984375" customWidth="1" style="4" min="15" max="15"/>
+    <col width="12.09765625" customWidth="1" style="2" min="16" max="16"/>
+    <col width="8.796875" customWidth="1" style="2" min="17" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>出退勤シート</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>氏名</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>ゆき</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.6" customFormat="1" customHeight="1" s="3" thickBot="1">
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>出勤</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>退勤</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>勤務時間</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>売上</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>ドリンク</t>
+        </is>
+      </c>
+      <c r="I2" s="10" t="inlineStr">
+        <is>
+          <t>シャンパン</t>
+        </is>
+      </c>
+      <c r="J2" s="10" t="inlineStr">
+        <is>
+          <t>遅刻・当欠</t>
+        </is>
+      </c>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>バック</t>
+        </is>
+      </c>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>送り</t>
+        </is>
+      </c>
+      <c r="M2" s="6" t="inlineStr">
+        <is>
+          <t>前借</t>
+        </is>
+      </c>
+      <c r="O2" s="4" t="n"/>
+    </row>
+    <row r="3" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B3" s="11" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D3" s="50" t="n"/>
+      <c r="E3" s="51" t="n"/>
+      <c r="F3" s="52">
+        <f>E3-D3</f>
+        <v/>
+      </c>
+      <c r="G3" s="16" t="n"/>
+      <c r="H3" s="17" t="n"/>
+      <c r="I3" s="18" t="n"/>
+      <c r="J3" s="18" t="n"/>
+      <c r="K3" s="18" t="n"/>
+      <c r="L3" s="18" t="n"/>
+      <c r="M3" s="19" t="n"/>
+      <c r="O3" s="20" t="inlineStr">
+        <is>
+          <t>給与</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B4" s="11" t="n">
+        <v>45109</v>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D4" s="53" t="n"/>
+      <c r="E4" s="54" t="n"/>
+      <c r="F4" s="52">
+        <f>E4-D4</f>
+        <v/>
+      </c>
+      <c r="G4" s="23" t="n"/>
+      <c r="H4" s="24" t="n"/>
+      <c r="I4" s="25" t="n"/>
+      <c r="J4" s="25" t="n"/>
+      <c r="K4" s="25" t="n"/>
+      <c r="L4" s="25" t="n"/>
+      <c r="M4" s="26" t="n"/>
+      <c r="O4" s="27" t="inlineStr">
+        <is>
+          <t>出勤日数</t>
+        </is>
+      </c>
+      <c r="P4" s="28">
+        <f>COUNTA(E3:E33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B5" s="11" t="n">
+        <v>45110</v>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D5" s="53" t="n"/>
+      <c r="E5" s="54" t="n"/>
+      <c r="F5" s="52">
+        <f>E5-D5</f>
+        <v/>
+      </c>
+      <c r="G5" s="23" t="n"/>
+      <c r="H5" s="24" t="n"/>
+      <c r="I5" s="25" t="n"/>
+      <c r="J5" s="25" t="n"/>
+      <c r="K5" s="25" t="n"/>
+      <c r="L5" s="25" t="n"/>
+      <c r="M5" s="26" t="n"/>
+      <c r="O5" s="29" t="inlineStr">
+        <is>
+          <t>時給</t>
+        </is>
+      </c>
+      <c r="P5" s="30" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B6" s="11" t="n">
+        <v>45111</v>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D6" s="53" t="n"/>
+      <c r="E6" s="54" t="n"/>
+      <c r="F6" s="52">
+        <f>E6-D6</f>
+        <v/>
+      </c>
+      <c r="G6" s="23" t="n"/>
+      <c r="H6" s="24" t="n"/>
+      <c r="I6" s="25" t="n"/>
+      <c r="J6" s="25" t="n"/>
+      <c r="K6" s="25" t="n"/>
+      <c r="L6" s="25" t="n"/>
+      <c r="M6" s="26" t="n"/>
+    </row>
+    <row r="7" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B7" s="11" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D7" s="53" t="n"/>
+      <c r="E7" s="54" t="n"/>
+      <c r="F7" s="52">
+        <f>E7-D7</f>
+        <v/>
+      </c>
+      <c r="G7" s="23" t="n"/>
+      <c r="H7" s="24" t="n"/>
+      <c r="I7" s="25" t="n"/>
+      <c r="J7" s="25" t="n"/>
+      <c r="K7" s="25" t="n"/>
+      <c r="L7" s="25" t="n"/>
+      <c r="M7" s="26" t="n"/>
+      <c r="O7" s="27" t="inlineStr">
+        <is>
+          <t>基本給</t>
+        </is>
+      </c>
+      <c r="P7" s="28">
+        <f>P5*F34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B8" s="11" t="n">
+        <v>45113</v>
+      </c>
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D8" s="53" t="n"/>
+      <c r="E8" s="54" t="n"/>
+      <c r="F8" s="52">
+        <f>E8-D8</f>
+        <v/>
+      </c>
+      <c r="G8" s="23" t="n"/>
+      <c r="H8" s="24" t="n"/>
+      <c r="I8" s="25" t="n"/>
+      <c r="J8" s="25" t="n"/>
+      <c r="K8" s="25" t="n"/>
+      <c r="L8" s="25" t="n"/>
+      <c r="M8" s="26" t="n"/>
+      <c r="O8" s="29" t="inlineStr">
+        <is>
+          <t>バック</t>
+        </is>
+      </c>
+      <c r="P8" s="30">
+        <f>K34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B9" s="11" t="n">
+        <v>45114</v>
+      </c>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D9" s="53" t="n"/>
+      <c r="E9" s="54" t="n"/>
+      <c r="F9" s="52">
+        <f>E9-D9</f>
+        <v/>
+      </c>
+      <c r="G9" s="23" t="n"/>
+      <c r="H9" s="24" t="n"/>
+      <c r="I9" s="25" t="n"/>
+      <c r="J9" s="25" t="n"/>
+      <c r="K9" s="25" t="n"/>
+      <c r="L9" s="25" t="n"/>
+      <c r="M9" s="26" t="n"/>
+    </row>
+    <row r="10" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B10" s="11" t="n">
+        <v>45115</v>
+      </c>
+      <c r="C10" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D10" s="53" t="n"/>
+      <c r="E10" s="54" t="n"/>
+      <c r="F10" s="52">
+        <f>E10-D10</f>
+        <v/>
+      </c>
+      <c r="G10" s="23" t="n"/>
+      <c r="H10" s="24" t="n"/>
+      <c r="I10" s="25" t="n"/>
+      <c r="J10" s="25" t="n"/>
+      <c r="K10" s="25" t="n"/>
+      <c r="L10" s="25" t="n"/>
+      <c r="M10" s="26" t="n"/>
+      <c r="O10" s="20" t="inlineStr">
+        <is>
+          <t>賞与</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B11" s="11" t="n">
+        <v>45116</v>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D11" s="53" t="n"/>
+      <c r="E11" s="54" t="n"/>
+      <c r="F11" s="52">
+        <f>E11-D11</f>
+        <v/>
+      </c>
+      <c r="G11" s="23" t="n"/>
+      <c r="H11" s="24" t="n"/>
+      <c r="I11" s="25" t="n"/>
+      <c r="J11" s="25" t="n"/>
+      <c r="K11" s="25" t="n"/>
+      <c r="L11" s="25" t="n"/>
+      <c r="M11" s="26" t="n"/>
+      <c r="O11" s="31" t="inlineStr">
+        <is>
+          <t>チームバック</t>
+        </is>
+      </c>
+      <c r="P11" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B12" s="11" t="n">
+        <v>45117</v>
+      </c>
+      <c r="C12" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D12" s="53" t="n"/>
+      <c r="E12" s="54" t="n"/>
+      <c r="F12" s="52">
+        <f>E12-D12</f>
+        <v/>
+      </c>
+      <c r="G12" s="23" t="n"/>
+      <c r="H12" s="24" t="n"/>
+      <c r="I12" s="25" t="n"/>
+      <c r="J12" s="25" t="n"/>
+      <c r="K12" s="25" t="n"/>
+      <c r="L12" s="25" t="n"/>
+      <c r="M12" s="26" t="n"/>
+      <c r="O12" s="32" t="inlineStr">
+        <is>
+          <t>売上1位</t>
+        </is>
+      </c>
+      <c r="P12" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B13" s="11" t="n">
+        <v>45118</v>
+      </c>
+      <c r="C13" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D13" s="53" t="n"/>
+      <c r="E13" s="54" t="n"/>
+      <c r="F13" s="52">
+        <f>E13-D13</f>
+        <v/>
+      </c>
+      <c r="G13" s="23" t="n"/>
+      <c r="H13" s="24" t="n"/>
+      <c r="I13" s="25" t="n"/>
+      <c r="J13" s="25" t="n"/>
+      <c r="K13" s="25" t="n"/>
+      <c r="L13" s="25" t="n"/>
+      <c r="M13" s="26" t="n"/>
+      <c r="O13" s="32" t="inlineStr">
+        <is>
+          <t>月間指名1位</t>
+        </is>
+      </c>
+      <c r="P13" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B14" s="11" t="n">
+        <v>45119</v>
+      </c>
+      <c r="C14" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D14" s="53" t="n"/>
+      <c r="E14" s="54" t="n"/>
+      <c r="F14" s="52">
+        <f>E14-D14</f>
+        <v/>
+      </c>
+      <c r="G14" s="23" t="n"/>
+      <c r="H14" s="24" t="n"/>
+      <c r="I14" s="25" t="n"/>
+      <c r="J14" s="25" t="n"/>
+      <c r="K14" s="25" t="n"/>
+      <c r="L14" s="25" t="n"/>
+      <c r="M14" s="26" t="n"/>
+      <c r="O14" s="32" t="inlineStr">
+        <is>
+          <t>月間同伴1位</t>
+        </is>
+      </c>
+      <c r="P14" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B15" s="11" t="n">
+        <v>45120</v>
+      </c>
+      <c r="C15" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D15" s="53" t="n"/>
+      <c r="E15" s="54" t="n"/>
+      <c r="F15" s="52">
+        <f>E15-D15</f>
+        <v/>
+      </c>
+      <c r="G15" s="23" t="n"/>
+      <c r="H15" s="24" t="n"/>
+      <c r="I15" s="25" t="n"/>
+      <c r="J15" s="25" t="n"/>
+      <c r="K15" s="25" t="n"/>
+      <c r="L15" s="25" t="n"/>
+      <c r="M15" s="26" t="n"/>
+      <c r="O15" s="32" t="inlineStr">
+        <is>
+          <t>シャンパン</t>
+        </is>
+      </c>
+      <c r="P15" s="33">
+        <f>I34*10%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B16" s="11" t="n">
+        <v>45121</v>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D16" s="53" t="n"/>
+      <c r="E16" s="54" t="n"/>
+      <c r="F16" s="52">
+        <f>E16-D16</f>
+        <v/>
+      </c>
+      <c r="G16" s="23" t="n"/>
+      <c r="H16" s="24" t="n"/>
+      <c r="I16" s="25" t="n"/>
+      <c r="J16" s="25" t="n"/>
+      <c r="K16" s="25" t="n"/>
+      <c r="L16" s="25" t="n"/>
+      <c r="M16" s="26" t="n"/>
+      <c r="O16" s="34" t="inlineStr">
+        <is>
+          <t>ドリンク</t>
+        </is>
+      </c>
+      <c r="P16" s="30">
+        <f>H34*200</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B17" s="11" t="n">
+        <v>45122</v>
+      </c>
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D17" s="53" t="n"/>
+      <c r="E17" s="54" t="n"/>
+      <c r="F17" s="52">
+        <f>E17-D17</f>
+        <v/>
+      </c>
+      <c r="G17" s="23" t="n"/>
+      <c r="H17" s="24" t="n"/>
+      <c r="I17" s="25" t="n"/>
+      <c r="J17" s="25" t="n"/>
+      <c r="K17" s="25" t="n"/>
+      <c r="L17" s="25" t="n"/>
+      <c r="M17" s="26" t="n"/>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="P17" s="2">
+        <f>SUM(P11:P16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B18" s="11" t="n">
+        <v>45123</v>
+      </c>
+      <c r="C18" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D18" s="53" t="n"/>
+      <c r="E18" s="54" t="n"/>
+      <c r="F18" s="52">
+        <f>E18-D18</f>
+        <v/>
+      </c>
+      <c r="G18" s="23" t="n"/>
+      <c r="H18" s="24" t="n"/>
+      <c r="I18" s="25" t="n"/>
+      <c r="J18" s="25" t="n"/>
+      <c r="K18" s="25" t="n"/>
+      <c r="L18" s="25" t="n"/>
+      <c r="M18" s="26" t="n"/>
+    </row>
+    <row r="19" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B19" s="11" t="n">
+        <v>45124</v>
+      </c>
+      <c r="C19" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D19" s="53" t="n"/>
+      <c r="E19" s="54" t="n"/>
+      <c r="F19" s="52">
+        <f>E19-D19</f>
+        <v/>
+      </c>
+      <c r="G19" s="23" t="n"/>
+      <c r="H19" s="24" t="n"/>
+      <c r="I19" s="25" t="n"/>
+      <c r="J19" s="25" t="n"/>
+      <c r="K19" s="25" t="n"/>
+      <c r="L19" s="25" t="n"/>
+      <c r="M19" s="26" t="n"/>
+      <c r="O19" s="20" t="inlineStr">
+        <is>
+          <t>手当</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B20" s="11" t="n">
+        <v>45125</v>
+      </c>
+      <c r="C20" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D20" s="53" t="n"/>
+      <c r="E20" s="54" t="n"/>
+      <c r="F20" s="52">
+        <f>E20-D20</f>
+        <v/>
+      </c>
+      <c r="G20" s="23" t="n"/>
+      <c r="H20" s="24" t="n"/>
+      <c r="I20" s="25" t="n"/>
+      <c r="J20" s="25" t="n"/>
+      <c r="K20" s="25" t="n"/>
+      <c r="L20" s="25" t="n"/>
+      <c r="M20" s="26" t="n"/>
+      <c r="O20" s="31" t="inlineStr">
+        <is>
+          <t>シフト手当</t>
+        </is>
+      </c>
+      <c r="P20" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B21" s="11" t="n">
+        <v>45126</v>
+      </c>
+      <c r="C21" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D21" s="53" t="n"/>
+      <c r="E21" s="54" t="n"/>
+      <c r="F21" s="52">
+        <f>E21-D21</f>
+        <v/>
+      </c>
+      <c r="G21" s="23" t="n"/>
+      <c r="H21" s="24" t="n"/>
+      <c r="I21" s="25" t="n"/>
+      <c r="J21" s="25" t="n"/>
+      <c r="K21" s="25" t="n"/>
+      <c r="L21" s="25" t="n"/>
+      <c r="M21" s="26" t="n"/>
+      <c r="O21" s="34" t="inlineStr">
+        <is>
+          <t>役職手当</t>
+        </is>
+      </c>
+      <c r="P21" s="30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B22" s="11" t="n">
+        <v>45127</v>
+      </c>
+      <c r="C22" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D22" s="53" t="n"/>
+      <c r="E22" s="54" t="n"/>
+      <c r="F22" s="52">
+        <f>E22-D22</f>
+        <v/>
+      </c>
+      <c r="G22" s="23" t="n"/>
+      <c r="H22" s="24" t="n"/>
+      <c r="I22" s="25" t="n"/>
+      <c r="J22" s="25" t="n"/>
+      <c r="K22" s="25" t="n"/>
+      <c r="L22" s="25" t="n"/>
+      <c r="M22" s="26" t="n"/>
+    </row>
+    <row r="23" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B23" s="11" t="n">
+        <v>45128</v>
+      </c>
+      <c r="C23" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D23" s="53" t="n"/>
+      <c r="E23" s="54" t="n"/>
+      <c r="F23" s="52">
+        <f>E23-D23</f>
+        <v/>
+      </c>
+      <c r="G23" s="23" t="n"/>
+      <c r="H23" s="24" t="n"/>
+      <c r="I23" s="25" t="n"/>
+      <c r="J23" s="25" t="n"/>
+      <c r="K23" s="25" t="n"/>
+      <c r="L23" s="25" t="n"/>
+      <c r="M23" s="26" t="n"/>
+      <c r="O23" s="20" t="inlineStr">
+        <is>
+          <t>控除</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B24" s="11" t="n">
+        <v>45129</v>
+      </c>
+      <c r="C24" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D24" s="53" t="n"/>
+      <c r="E24" s="54" t="n"/>
+      <c r="F24" s="52">
+        <f>E24-D24</f>
+        <v/>
+      </c>
+      <c r="G24" s="23" t="n"/>
+      <c r="H24" s="24" t="n"/>
+      <c r="I24" s="25" t="n"/>
+      <c r="J24" s="25" t="n"/>
+      <c r="K24" s="25" t="n"/>
+      <c r="L24" s="25" t="n"/>
+      <c r="M24" s="26" t="n"/>
+      <c r="O24" s="31" t="inlineStr">
+        <is>
+          <t>源泉徴収</t>
+        </is>
+      </c>
+      <c r="P24" s="35">
+        <f>P29*10.21%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B25" s="11" t="n">
+        <v>45130</v>
+      </c>
+      <c r="C25" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D25" s="53" t="n"/>
+      <c r="E25" s="54" t="n"/>
+      <c r="F25" s="52">
+        <f>E25-D25</f>
+        <v/>
+      </c>
+      <c r="G25" s="23" t="n"/>
+      <c r="H25" s="24" t="n"/>
+      <c r="I25" s="25" t="n"/>
+      <c r="J25" s="25" t="n"/>
+      <c r="K25" s="25" t="n"/>
+      <c r="L25" s="25" t="n"/>
+      <c r="M25" s="26" t="n"/>
+      <c r="O25" s="32" t="inlineStr">
+        <is>
+          <t>交通費</t>
+        </is>
+      </c>
+      <c r="P25" s="33">
+        <f>L34*500</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B26" s="11" t="n">
+        <v>45131</v>
+      </c>
+      <c r="C26" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D26" s="53" t="n"/>
+      <c r="E26" s="54" t="n"/>
+      <c r="F26" s="52">
+        <f>E26-D26</f>
+        <v/>
+      </c>
+      <c r="G26" s="23" t="n"/>
+      <c r="H26" s="24" t="n"/>
+      <c r="I26" s="25" t="n"/>
+      <c r="J26" s="25" t="n"/>
+      <c r="K26" s="25" t="n"/>
+      <c r="L26" s="25" t="n"/>
+      <c r="M26" s="26" t="n"/>
+      <c r="O26" s="34" t="inlineStr">
+        <is>
+          <t>前借</t>
+        </is>
+      </c>
+      <c r="P26" s="30">
+        <f>M34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B27" s="11" t="n">
+        <v>45132</v>
+      </c>
+      <c r="C27" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D27" s="53" t="n"/>
+      <c r="E27" s="54" t="n"/>
+      <c r="F27" s="52">
+        <f>E27-D27</f>
+        <v/>
+      </c>
+      <c r="G27" s="23" t="n"/>
+      <c r="H27" s="24" t="n"/>
+      <c r="I27" s="25" t="n"/>
+      <c r="J27" s="25" t="n"/>
+      <c r="K27" s="25" t="n"/>
+      <c r="L27" s="25" t="n"/>
+      <c r="M27" s="26" t="n"/>
+    </row>
+    <row r="28" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B28" s="11" t="n">
+        <v>45133</v>
+      </c>
+      <c r="C28" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D28" s="53" t="n"/>
+      <c r="E28" s="54" t="n"/>
+      <c r="F28" s="52">
+        <f>E28-D28</f>
+        <v/>
+      </c>
+      <c r="G28" s="23" t="n"/>
+      <c r="H28" s="24" t="n"/>
+      <c r="I28" s="25" t="n"/>
+      <c r="J28" s="25" t="n"/>
+      <c r="K28" s="25" t="n"/>
+      <c r="L28" s="25" t="n"/>
+      <c r="M28" s="26" t="n"/>
+      <c r="O28" s="20" t="inlineStr">
+        <is>
+          <t>支給額</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B29" s="11" t="n">
+        <v>45134</v>
+      </c>
+      <c r="C29" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D29" s="53" t="n"/>
+      <c r="E29" s="54" t="n"/>
+      <c r="F29" s="52">
+        <f>E29-D29</f>
+        <v/>
+      </c>
+      <c r="G29" s="23" t="n"/>
+      <c r="H29" s="24" t="n"/>
+      <c r="I29" s="25" t="n"/>
+      <c r="J29" s="25" t="n"/>
+      <c r="K29" s="25" t="n"/>
+      <c r="L29" s="25" t="n"/>
+      <c r="M29" s="26" t="n"/>
+      <c r="O29" s="31" t="inlineStr">
+        <is>
+          <t>総支給額</t>
+        </is>
+      </c>
+      <c r="P29" s="28">
+        <f>P7+P8+P17+P20+P21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B30" s="11" t="n">
+        <v>45135</v>
+      </c>
+      <c r="C30" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D30" s="53" t="n"/>
+      <c r="E30" s="54" t="n"/>
+      <c r="F30" s="52">
+        <f>E30-D30</f>
+        <v/>
+      </c>
+      <c r="G30" s="23" t="n"/>
+      <c r="H30" s="24" t="n"/>
+      <c r="I30" s="25" t="n"/>
+      <c r="J30" s="25" t="n"/>
+      <c r="K30" s="25" t="n"/>
+      <c r="L30" s="25" t="n"/>
+      <c r="M30" s="26" t="n"/>
+      <c r="O30" s="34" t="inlineStr">
+        <is>
+          <t>差引支給額</t>
+        </is>
+      </c>
+      <c r="P30" s="36">
+        <f>P29-P24-P25-P26-P8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B31" s="11" t="n">
+        <v>45136</v>
+      </c>
+      <c r="C31" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D31" s="53" t="n"/>
+      <c r="E31" s="54" t="n"/>
+      <c r="F31" s="52">
+        <f>E31-D31</f>
+        <v/>
+      </c>
+      <c r="G31" s="23" t="n"/>
+      <c r="H31" s="24" t="n"/>
+      <c r="I31" s="25" t="n"/>
+      <c r="J31" s="25" t="n"/>
+      <c r="K31" s="25" t="n"/>
+      <c r="L31" s="25" t="n"/>
+      <c r="M31" s="26" t="n"/>
+    </row>
+    <row r="32" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B32" s="11" t="n">
+        <v>45137</v>
+      </c>
+      <c r="C32" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D32" s="53" t="n"/>
+      <c r="E32" s="54" t="n"/>
+      <c r="F32" s="52">
+        <f>E32-D32</f>
+        <v/>
+      </c>
+      <c r="G32" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="25" t="n"/>
+      <c r="K32" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="25" t="n"/>
+      <c r="M32" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="20" t="inlineStr">
+        <is>
+          <t>参考値</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="B33" s="48" t="n">
+        <v>45138</v>
+      </c>
+      <c r="C33" s="37" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D33" s="55" t="n"/>
+      <c r="E33" s="56" t="n"/>
+      <c r="F33" s="52">
+        <f>E33-D33</f>
+        <v/>
+      </c>
+      <c r="G33" s="40" t="n"/>
+      <c r="H33" s="41" t="n"/>
+      <c r="I33" s="42" t="n"/>
+      <c r="J33" s="42" t="n"/>
+      <c r="K33" s="42" t="n"/>
+      <c r="L33" s="42" t="n"/>
+      <c r="M33" s="30" t="n"/>
+      <c r="O33" s="31" t="inlineStr">
+        <is>
+          <t>月間売上</t>
+        </is>
+      </c>
+      <c r="P33" s="43">
+        <f>G34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="18.6" customHeight="1" s="49" thickBot="1">
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>当月勤務時間合計</t>
+        </is>
+      </c>
+      <c r="F34" s="57">
+        <f>SUM(F3:F33)</f>
+        <v/>
+      </c>
+      <c r="G34" s="45">
+        <f>SUM(G3:G33)</f>
+        <v/>
+      </c>
+      <c r="H34" s="45">
+        <f>SUM(H3:H33)</f>
+        <v/>
+      </c>
+      <c r="I34" s="45">
+        <f>SUM(I3:I33)</f>
+        <v/>
+      </c>
+      <c r="J34" s="45">
+        <f>SUM(J3:J33)</f>
+        <v/>
+      </c>
+      <c r="K34" s="45">
+        <f>SUM(K3:K33)</f>
+        <v/>
+      </c>
+      <c r="L34" s="45">
+        <f>SUM(L3:L33)</f>
+        <v/>
+      </c>
+      <c r="M34" s="46">
+        <f>SUM(M3:M33)</f>
+        <v/>
+      </c>
+      <c r="O34" s="34" t="inlineStr">
+        <is>
+          <t>給率</t>
+        </is>
+      </c>
+      <c r="P34" s="47">
+        <f>P29/P33</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="52" horizontalDpi="360" verticalDpi="360"/>
+</worksheet>
 </file>